--- a/25-26/1.INVOICES/BK002 Oct ZHININ MENDIETA ROSA LOURDES/BK RockStone Invoice template, PO, Packing List, Proforma invoice.xlsx
+++ b/25-26/1.INVOICES/BK002 Oct ZHININ MENDIETA ROSA LOURDES/BK RockStone Invoice template, PO, Packing List, Proforma invoice.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="company data" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="177">
   <si>
     <t>financial year</t>
   </si>
@@ -196,9 +196,6 @@
     <t xml:space="preserve">Description Of Goods </t>
   </si>
   <si>
-    <t>HS CODE</t>
-  </si>
-  <si>
     <t>Quantity in</t>
   </si>
   <si>
@@ -281,9 +278,6 @@
   </si>
   <si>
     <t>Terms of Payment</t>
-  </si>
-  <si>
-    <t>HSN CODE</t>
   </si>
   <si>
     <t>TOTAL</t>
@@ -602,6 +596,21 @@
   <si>
     <t>27000kgs</t>
   </si>
+  <si>
+    <t>Description Of Goods</t>
+  </si>
+  <si>
+    <t>Black Forest Granite Slabs (Polished)
+Size: 2.50 Length X 0.70 Height, Thickness : 18 mm</t>
+  </si>
+  <si>
+    <t>P White Granite Slabs (Polished)
+Size: 2.50 Length X 0.70 Height, Thickness : 18 mm</t>
+  </si>
+  <si>
+    <t>Alaska White Granite Slabs (Polished)
+Size: 2.50 Length X 0.70 Height, Thickness : 18 mm</t>
+  </si>
 </sst>
 </file>
 
@@ -812,7 +821,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="58">
+  <borders count="57">
     <border>
       <left/>
       <right/>
@@ -958,21 +967,6 @@
         <color rgb="FF000000"/>
       </right>
       <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
@@ -1463,7 +1457,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="331">
+  <cellXfs count="338">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1509,7 +1503,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1537,7 +1530,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1551,29 +1544,21 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1597,84 +1582,78 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1682,6 +1661,18 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1693,44 +1684,74 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1738,8 +1759,8 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1747,87 +1768,69 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1836,233 +1839,268 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="8" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="8" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2071,62 +2109,59 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2139,15 +2174,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2187,19 +2214,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2212,16 +2236,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2237,18 +2262,18 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2844,11 +2869,11 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
-        <v>101</v>
+      <c r="A2" s="40" t="s">
+        <v>99</v>
       </c>
-      <c r="B2" s="79" t="s">
-        <v>144</v>
+      <c r="B2" s="74" t="s">
+        <v>142</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>5</v>
@@ -2856,8 +2881,8 @@
       <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="79" t="s">
-        <v>142</v>
+      <c r="E2" s="74" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -2888,13 +2913,13 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E6" s="44" t="s">
-        <v>102</v>
+      <c r="E6" s="43" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3904,7 +3929,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -3936,7 +3961,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -3996,7 +4021,7 @@
       <c r="Y3" s="4"/>
       <c r="Z3" s="4"/>
     </row>
-    <row r="4" spans="1:26" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -4028,12 +4053,12 @@
       <c r="Y4" s="4"/>
       <c r="Z4" s="4"/>
     </row>
-    <row r="5" spans="1:26" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -4093,12 +4118,12 @@
       <c r="Y6" s="4"/>
       <c r="Z6" s="4"/>
     </row>
-    <row r="7" spans="1:26" s="42" customFormat="1" ht="149.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="101" t="s">
+    <row r="7" spans="1:26" s="41" customFormat="1" ht="149.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="94" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="100" t="s">
-        <v>171</v>
+      <c r="B7" s="93" t="s">
+        <v>169</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -4126,11 +4151,11 @@
       <c r="Z7" s="4"/>
     </row>
     <row r="8" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="113" t="s">
+      <c r="A8" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="115" t="s">
-        <v>151</v>
+      <c r="B8" s="112" t="s">
+        <v>149</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
@@ -4158,8 +4183,8 @@
       <c r="Z8" s="4"/>
     </row>
     <row r="9" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="114"/>
-      <c r="B9" s="116"/>
+      <c r="A9" s="111"/>
+      <c r="B9" s="113"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
@@ -4186,8 +4211,8 @@
       <c r="Z9" s="4"/>
     </row>
     <row r="10" spans="1:26" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="114"/>
-      <c r="B10" s="116"/>
+      <c r="A10" s="111"/>
+      <c r="B10" s="113"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
@@ -4214,8 +4239,8 @@
       <c r="Z10" s="4"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="114"/>
-      <c r="B11" s="116"/>
+      <c r="A11" s="111"/>
+      <c r="B11" s="113"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
@@ -4242,8 +4267,8 @@
       <c r="Z11" s="4"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="114"/>
-      <c r="B12" s="116"/>
+      <c r="A12" s="111"/>
+      <c r="B12" s="113"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
@@ -4270,8 +4295,8 @@
       <c r="Z12" s="4"/>
     </row>
     <row r="13" spans="1:26" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="114"/>
-      <c r="B13" s="116"/>
+      <c r="A13" s="111"/>
+      <c r="B13" s="113"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
@@ -4334,7 +4359,7 @@
         <v>21</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -4430,7 +4455,7 @@
         <v>24</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -4462,7 +4487,7 @@
         <v>25</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -4494,7 +4519,7 @@
         <v>26</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -4526,7 +4551,7 @@
         <v>27</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -4558,7 +4583,7 @@
         <v>28</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -4590,7 +4615,7 @@
         <v>29</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -4619,10 +4644,10 @@
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -4651,7 +4676,7 @@
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B25" s="14">
         <v>276</v>
@@ -4681,12 +4706,12 @@
       <c r="Y25" s="4"/>
       <c r="Z25" s="4"/>
     </row>
-    <row r="26" spans="1:26" s="57" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" s="55" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -4715,7 +4740,7 @@
     </row>
     <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B27" s="14">
         <v>155.75</v>
@@ -4747,7 +4772,7 @@
     </row>
     <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B28" s="14">
         <v>16.2</v>
@@ -4779,10 +4804,10 @@
     </row>
     <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -4811,7 +4836,7 @@
     </row>
     <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B30" s="14">
         <v>168</v>
@@ -4843,7 +4868,7 @@
     </row>
     <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B31" s="14">
         <v>14.9</v>
@@ -4875,10 +4900,10 @@
     </row>
     <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
@@ -4907,7 +4932,7 @@
     </row>
     <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B33" s="14">
         <v>159.25</v>
@@ -4939,7 +4964,7 @@
     </row>
     <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B34" s="14">
         <v>23.2</v>
@@ -32093,258 +32118,258 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N1001"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:J44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="49" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" style="49" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" style="49" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" style="49" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="49" customWidth="1"/>
-    <col min="6" max="6" width="6.5703125" style="49" customWidth="1"/>
-    <col min="7" max="7" width="4.7109375" style="49" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" style="49" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" style="49" customWidth="1"/>
-    <col min="10" max="10" width="6.5703125" style="49" customWidth="1"/>
-    <col min="11" max="12" width="8.7109375" style="49" customWidth="1"/>
-    <col min="13" max="13" width="5.7109375" style="49" customWidth="1"/>
-    <col min="14" max="26" width="8.7109375" style="49" customWidth="1"/>
-    <col min="27" max="16384" width="14.42578125" style="49"/>
+    <col min="1" max="1" width="8.7109375" style="47" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" style="47" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" style="47" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" style="47" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="47" customWidth="1"/>
+    <col min="6" max="6" width="6.5703125" style="47" customWidth="1"/>
+    <col min="7" max="7" width="4.7109375" style="47" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" style="47" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" style="47" customWidth="1"/>
+    <col min="10" max="10" width="6.5703125" style="47" customWidth="1"/>
+    <col min="11" max="12" width="8.7109375" style="47" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="47" customWidth="1"/>
+    <col min="14" max="26" width="8.7109375" style="47" customWidth="1"/>
+    <col min="27" max="16384" width="14.42578125" style="47"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="214" t="s">
+      <c r="A1" s="219" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="154"/>
-      <c r="C1" s="154"/>
-      <c r="D1" s="154"/>
-      <c r="E1" s="154"/>
-      <c r="F1" s="154"/>
-      <c r="G1" s="154"/>
-      <c r="H1" s="154"/>
-      <c r="I1" s="154"/>
-      <c r="J1" s="154"/>
+      <c r="B1" s="168"/>
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="168"/>
+      <c r="F1" s="168"/>
+      <c r="G1" s="168"/>
+      <c r="H1" s="168"/>
+      <c r="I1" s="168"/>
+      <c r="J1" s="168"/>
     </row>
     <row r="2" spans="1:10" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="174"/>
-      <c r="B2" s="174"/>
-      <c r="C2" s="174"/>
-      <c r="D2" s="174"/>
-      <c r="E2" s="174"/>
-      <c r="F2" s="174"/>
-      <c r="G2" s="174"/>
-      <c r="H2" s="174"/>
-      <c r="I2" s="174"/>
-      <c r="J2" s="174"/>
+      <c r="A2" s="171"/>
+      <c r="B2" s="171"/>
+      <c r="C2" s="171"/>
+      <c r="D2" s="171"/>
+      <c r="E2" s="171"/>
+      <c r="F2" s="171"/>
+      <c r="G2" s="171"/>
+      <c r="H2" s="171"/>
+      <c r="I2" s="171"/>
+      <c r="J2" s="171"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="215" t="s">
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="220" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="188"/>
-      <c r="G3" s="216"/>
-      <c r="H3" s="215" t="s">
+      <c r="F3" s="192"/>
+      <c r="G3" s="221"/>
+      <c r="H3" s="220" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="188"/>
-      <c r="J3" s="189"/>
+      <c r="I3" s="192"/>
+      <c r="J3" s="193"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="50" t="s">
-        <v>105</v>
+      <c r="A4" s="48" t="s">
+        <v>103</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="217" t="str">
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="222" t="str">
         <f>'input data'!B3</f>
         <v>BK002/25-26</v>
       </c>
-      <c r="F4" s="184"/>
-      <c r="G4" s="180"/>
-      <c r="H4" s="218">
+      <c r="F4" s="181"/>
+      <c r="G4" s="177"/>
+      <c r="H4" s="223">
         <f>'input data'!B4</f>
         <v>45945</v>
       </c>
-      <c r="I4" s="219"/>
-      <c r="J4" s="220"/>
+      <c r="I4" s="224"/>
+      <c r="J4" s="225"/>
     </row>
     <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="126" t="s">
-        <v>169</v>
+      <c r="A5" s="132" t="s">
+        <v>167</v>
       </c>
-      <c r="B5" s="127"/>
-      <c r="C5" s="127"/>
-      <c r="D5" s="127"/>
-      <c r="E5" s="158" t="s">
-        <v>108</v>
+      <c r="B5" s="133"/>
+      <c r="C5" s="133"/>
+      <c r="D5" s="133"/>
+      <c r="E5" s="153" t="s">
+        <v>106</v>
       </c>
-      <c r="F5" s="151"/>
-      <c r="G5" s="152"/>
-      <c r="H5" s="158" t="s">
+      <c r="F5" s="197"/>
+      <c r="G5" s="154"/>
+      <c r="H5" s="153" t="s">
         <v>37</v>
       </c>
-      <c r="I5" s="151"/>
-      <c r="J5" s="178"/>
+      <c r="I5" s="197"/>
+      <c r="J5" s="175"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="126"/>
-      <c r="B6" s="127"/>
-      <c r="C6" s="127"/>
-      <c r="D6" s="127"/>
-      <c r="E6" s="209" t="str">
+      <c r="A6" s="132"/>
+      <c r="B6" s="133"/>
+      <c r="C6" s="133"/>
+      <c r="D6" s="133"/>
+      <c r="E6" s="214" t="str">
         <f>'input data'!B5</f>
         <v>PI1908/25-26</v>
       </c>
-      <c r="F6" s="184"/>
-      <c r="G6" s="180"/>
-      <c r="H6" s="210" t="str">
+      <c r="F6" s="181"/>
+      <c r="G6" s="177"/>
+      <c r="H6" s="215" t="str">
         <f>'input data'!B6</f>
         <v>AD240725023182F</v>
       </c>
-      <c r="I6" s="184"/>
-      <c r="J6" s="181"/>
+      <c r="I6" s="181"/>
+      <c r="J6" s="178"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="126"/>
-      <c r="B7" s="127"/>
-      <c r="C7" s="127"/>
-      <c r="D7" s="127"/>
-      <c r="E7" s="158" t="s">
+      <c r="A7" s="132"/>
+      <c r="B7" s="133"/>
+      <c r="C7" s="133"/>
+      <c r="D7" s="133"/>
+      <c r="E7" s="153" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="151"/>
-      <c r="G7" s="152"/>
-      <c r="H7" s="158" t="s">
+      <c r="F7" s="197"/>
+      <c r="G7" s="154"/>
+      <c r="H7" s="153" t="s">
         <v>39</v>
       </c>
-      <c r="I7" s="151"/>
-      <c r="J7" s="178"/>
+      <c r="I7" s="197"/>
+      <c r="J7" s="175"/>
     </row>
     <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="126"/>
-      <c r="B8" s="127"/>
-      <c r="C8" s="127"/>
-      <c r="D8" s="127"/>
-      <c r="E8" s="211" t="s">
-        <v>104</v>
+      <c r="A8" s="132"/>
+      <c r="B8" s="133"/>
+      <c r="C8" s="133"/>
+      <c r="D8" s="133"/>
+      <c r="E8" s="216" t="s">
+        <v>102</v>
       </c>
-      <c r="F8" s="212"/>
-      <c r="G8" s="213"/>
-      <c r="H8" s="211" t="s">
-        <v>103</v>
+      <c r="F8" s="217"/>
+      <c r="G8" s="218"/>
+      <c r="H8" s="216" t="s">
+        <v>101</v>
       </c>
-      <c r="I8" s="174"/>
-      <c r="J8" s="173"/>
+      <c r="I8" s="171"/>
+      <c r="J8" s="170"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="126"/>
-      <c r="B9" s="127"/>
-      <c r="C9" s="127"/>
-      <c r="D9" s="127"/>
-      <c r="E9" s="187" t="s">
+      <c r="A9" s="132"/>
+      <c r="B9" s="133"/>
+      <c r="C9" s="133"/>
+      <c r="D9" s="133"/>
+      <c r="E9" s="191" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="188"/>
-      <c r="G9" s="189"/>
-      <c r="H9" s="187" t="s">
+      <c r="F9" s="192"/>
+      <c r="G9" s="193"/>
+      <c r="H9" s="191" t="s">
         <v>41</v>
       </c>
-      <c r="I9" s="188"/>
-      <c r="J9" s="189"/>
+      <c r="I9" s="192"/>
+      <c r="J9" s="193"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="126"/>
-      <c r="B10" s="127"/>
-      <c r="C10" s="127"/>
-      <c r="D10" s="127"/>
-      <c r="E10" s="171" t="str">
+      <c r="A10" s="132"/>
+      <c r="B10" s="133"/>
+      <c r="C10" s="133"/>
+      <c r="D10" s="133"/>
+      <c r="E10" s="167" t="str">
         <f>'input data'!B15</f>
         <v>Wooden Crate Packing</v>
       </c>
-      <c r="F10" s="154"/>
-      <c r="G10" s="173"/>
-      <c r="H10" s="171" t="str">
+      <c r="F10" s="168"/>
+      <c r="G10" s="170"/>
+      <c r="H10" s="167" t="str">
         <f>'input data'!B14 &amp; " " &amp; 'input data'!B16</f>
         <v>1 FCL</v>
       </c>
-      <c r="I10" s="154"/>
-      <c r="J10" s="173"/>
+      <c r="I10" s="168"/>
+      <c r="J10" s="170"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="126"/>
-      <c r="B11" s="127"/>
-      <c r="C11" s="127"/>
-      <c r="D11" s="127"/>
-      <c r="E11" s="187" t="s">
+      <c r="A11" s="132"/>
+      <c r="B11" s="133"/>
+      <c r="C11" s="133"/>
+      <c r="D11" s="133"/>
+      <c r="E11" s="191" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="188"/>
-      <c r="G11" s="189"/>
-      <c r="H11" s="190" t="s">
+      <c r="F11" s="192"/>
+      <c r="G11" s="193"/>
+      <c r="H11" s="194" t="s">
         <v>44</v>
       </c>
-      <c r="I11" s="188"/>
-      <c r="J11" s="189"/>
+      <c r="I11" s="192"/>
+      <c r="J11" s="193"/>
     </row>
     <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="126"/>
-      <c r="B12" s="127"/>
-      <c r="C12" s="127"/>
-      <c r="D12" s="127"/>
-      <c r="E12" s="200" t="str">
+      <c r="A12" s="132"/>
+      <c r="B12" s="133"/>
+      <c r="C12" s="133"/>
+      <c r="D12" s="133"/>
+      <c r="E12" s="205" t="str">
         <f>'input data'!B17</f>
         <v>FOB</v>
       </c>
-      <c r="F12" s="154"/>
-      <c r="G12" s="173"/>
-      <c r="H12" s="204" t="str">
+      <c r="F12" s="168"/>
+      <c r="G12" s="170"/>
+      <c r="H12" s="209" t="str">
         <f>'input data'!B18</f>
         <v>30% Advance and Remaining Against BL within 7 days</v>
       </c>
-      <c r="I12" s="205"/>
-      <c r="J12" s="206"/>
+      <c r="I12" s="210"/>
+      <c r="J12" s="211"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="128"/>
-      <c r="B13" s="129"/>
-      <c r="C13" s="129"/>
-      <c r="D13" s="129"/>
-      <c r="E13" s="201"/>
-      <c r="F13" s="202"/>
-      <c r="G13" s="203"/>
-      <c r="H13" s="207"/>
-      <c r="I13" s="207"/>
-      <c r="J13" s="208"/>
+      <c r="A13" s="134"/>
+      <c r="B13" s="135"/>
+      <c r="C13" s="135"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="206"/>
+      <c r="F13" s="207"/>
+      <c r="G13" s="208"/>
+      <c r="H13" s="212"/>
+      <c r="I13" s="212"/>
+      <c r="J13" s="213"/>
     </row>
     <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="50" t="s">
+      <c r="A14" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="45"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="117" t="s">
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="123" t="s">
         <v>45</v>
       </c>
-      <c r="F14" s="118"/>
-      <c r="G14" s="118"/>
-      <c r="H14" s="118"/>
-      <c r="I14" s="118"/>
-      <c r="J14" s="119"/>
+      <c r="F14" s="124"/>
+      <c r="G14" s="124"/>
+      <c r="H14" s="124"/>
+      <c r="I14" s="124"/>
+      <c r="J14" s="125"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="193" t="str">
+      <c r="A15" s="198" t="str">
         <f>'input data'!B7</f>
         <v>ZHIÑIN MENDIETA ROSA LOURDES
 RUC: 0105370399001
@@ -32353,525 +32378,507 @@
 Referencia: DIAGONAL A LA HOSTERIA CABALLO CAMPANA
 Cuenca - Ecuador</v>
       </c>
-      <c r="B15" s="154"/>
-      <c r="C15" s="154"/>
-      <c r="D15" s="155"/>
-      <c r="E15" s="120" t="str">
-        <f>'input data'!B8</f>
-        <v>DAPSE EXPRESS INTERNATIONAL LOGISTICS AND TRADE 
-RUC 172011272001
-operaciones@dapseexpress.com
-Teléfono: 0987681580
-QUITO-ECUADOR</v>
-      </c>
-      <c r="F15" s="121"/>
-      <c r="G15" s="121"/>
-      <c r="H15" s="121"/>
-      <c r="I15" s="121"/>
-      <c r="J15" s="122"/>
+      <c r="B15" s="168"/>
+      <c r="C15" s="168"/>
+      <c r="D15" s="183"/>
+      <c r="E15" s="126"/>
+      <c r="F15" s="127"/>
+      <c r="G15" s="127"/>
+      <c r="H15" s="127"/>
+      <c r="I15" s="127"/>
+      <c r="J15" s="128"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="194"/>
-      <c r="B16" s="154"/>
-      <c r="C16" s="154"/>
-      <c r="D16" s="155"/>
-      <c r="E16" s="120"/>
-      <c r="F16" s="121"/>
-      <c r="G16" s="121"/>
-      <c r="H16" s="121"/>
-      <c r="I16" s="121"/>
-      <c r="J16" s="122"/>
+      <c r="A16" s="199"/>
+      <c r="B16" s="168"/>
+      <c r="C16" s="168"/>
+      <c r="D16" s="183"/>
+      <c r="E16" s="126"/>
+      <c r="F16" s="127"/>
+      <c r="G16" s="127"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="127"/>
+      <c r="J16" s="128"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="194"/>
-      <c r="B17" s="154"/>
-      <c r="C17" s="154"/>
-      <c r="D17" s="155"/>
-      <c r="E17" s="120"/>
-      <c r="F17" s="121"/>
-      <c r="G17" s="121"/>
-      <c r="H17" s="121"/>
-      <c r="I17" s="121"/>
-      <c r="J17" s="122"/>
+      <c r="A17" s="199"/>
+      <c r="B17" s="168"/>
+      <c r="C17" s="168"/>
+      <c r="D17" s="183"/>
+      <c r="E17" s="126"/>
+      <c r="F17" s="127"/>
+      <c r="G17" s="127"/>
+      <c r="H17" s="127"/>
+      <c r="I17" s="127"/>
+      <c r="J17" s="128"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="194"/>
-      <c r="B18" s="154"/>
-      <c r="C18" s="154"/>
-      <c r="D18" s="155"/>
-      <c r="E18" s="120"/>
-      <c r="F18" s="121"/>
-      <c r="G18" s="121"/>
-      <c r="H18" s="121"/>
-      <c r="I18" s="121"/>
-      <c r="J18" s="122"/>
-      <c r="N18" s="98"/>
+      <c r="A18" s="199"/>
+      <c r="B18" s="168"/>
+      <c r="C18" s="168"/>
+      <c r="D18" s="183"/>
+      <c r="E18" s="126"/>
+      <c r="F18" s="127"/>
+      <c r="G18" s="127"/>
+      <c r="H18" s="127"/>
+      <c r="I18" s="127"/>
+      <c r="J18" s="128"/>
+      <c r="N18" s="91"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="194"/>
-      <c r="B19" s="154"/>
-      <c r="C19" s="154"/>
-      <c r="D19" s="155"/>
-      <c r="E19" s="120"/>
-      <c r="F19" s="121"/>
-      <c r="G19" s="121"/>
-      <c r="H19" s="121"/>
-      <c r="I19" s="121"/>
-      <c r="J19" s="122"/>
+      <c r="A19" s="199"/>
+      <c r="B19" s="168"/>
+      <c r="C19" s="168"/>
+      <c r="D19" s="183"/>
+      <c r="E19" s="126"/>
+      <c r="F19" s="127"/>
+      <c r="G19" s="127"/>
+      <c r="H19" s="127"/>
+      <c r="I19" s="127"/>
+      <c r="J19" s="128"/>
     </row>
     <row r="20" spans="1:14" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="195"/>
-      <c r="B20" s="184"/>
-      <c r="C20" s="184"/>
-      <c r="D20" s="180"/>
-      <c r="E20" s="123"/>
-      <c r="F20" s="124"/>
-      <c r="G20" s="124"/>
-      <c r="H20" s="124"/>
-      <c r="I20" s="124"/>
-      <c r="J20" s="125"/>
+      <c r="A20" s="200"/>
+      <c r="B20" s="181"/>
+      <c r="C20" s="181"/>
+      <c r="D20" s="177"/>
+      <c r="E20" s="129"/>
+      <c r="F20" s="130"/>
+      <c r="G20" s="130"/>
+      <c r="H20" s="130"/>
+      <c r="I20" s="130"/>
+      <c r="J20" s="131"/>
     </row>
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="196" t="s">
+      <c r="A21" s="201" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="152"/>
-      <c r="C21" s="197" t="s">
+      <c r="B21" s="154"/>
+      <c r="C21" s="202" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="152"/>
-      <c r="E21" s="197" t="s">
+      <c r="D21" s="154"/>
+      <c r="E21" s="202" t="s">
         <v>47</v>
       </c>
-      <c r="F21" s="151"/>
-      <c r="G21" s="152"/>
-      <c r="H21" s="197" t="s">
+      <c r="F21" s="197"/>
+      <c r="G21" s="154"/>
+      <c r="H21" s="202" t="s">
         <v>29</v>
       </c>
-      <c r="I21" s="151"/>
-      <c r="J21" s="178"/>
+      <c r="I21" s="197"/>
+      <c r="J21" s="175"/>
     </row>
     <row r="22" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="198" t="s">
+      <c r="A22" s="203" t="s">
         <v>48</v>
       </c>
-      <c r="B22" s="155"/>
-      <c r="C22" s="199" t="str">
+      <c r="B22" s="183"/>
+      <c r="C22" s="204" t="str">
         <f>'input data'!B19</f>
         <v>MUNDRA</v>
       </c>
-      <c r="D22" s="155"/>
-      <c r="E22" s="182" t="s">
+      <c r="D22" s="183"/>
+      <c r="E22" s="179" t="s">
         <v>49</v>
       </c>
-      <c r="F22" s="154"/>
-      <c r="G22" s="155"/>
-      <c r="H22" s="182" t="str">
+      <c r="F22" s="168"/>
+      <c r="G22" s="183"/>
+      <c r="H22" s="179" t="str">
         <f>'input data'!B23</f>
         <v>ECUADOR</v>
       </c>
-      <c r="I22" s="154"/>
-      <c r="J22" s="173"/>
+      <c r="I22" s="168"/>
+      <c r="J22" s="170"/>
     </row>
     <row r="23" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="185"/>
-      <c r="B23" s="155"/>
-      <c r="C23" s="183"/>
-      <c r="D23" s="180"/>
-      <c r="E23" s="183"/>
-      <c r="F23" s="184"/>
-      <c r="G23" s="180"/>
-      <c r="H23" s="183"/>
-      <c r="I23" s="184"/>
-      <c r="J23" s="181"/>
+      <c r="A23" s="182"/>
+      <c r="B23" s="183"/>
+      <c r="C23" s="180"/>
+      <c r="D23" s="177"/>
+      <c r="E23" s="180"/>
+      <c r="F23" s="181"/>
+      <c r="G23" s="177"/>
+      <c r="H23" s="180"/>
+      <c r="I23" s="181"/>
+      <c r="J23" s="178"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="191" t="s">
+      <c r="A24" s="195" t="s">
         <v>50</v>
       </c>
-      <c r="B24" s="152"/>
-      <c r="C24" s="192" t="s">
+      <c r="B24" s="154"/>
+      <c r="C24" s="196" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="152"/>
-      <c r="E24" s="158" t="s">
+      <c r="D24" s="154"/>
+      <c r="E24" s="153" t="s">
         <v>27</v>
       </c>
-      <c r="F24" s="151"/>
-      <c r="G24" s="152"/>
-      <c r="H24" s="192" t="s">
+      <c r="F24" s="197"/>
+      <c r="G24" s="154"/>
+      <c r="H24" s="196" t="s">
         <v>28</v>
       </c>
-      <c r="I24" s="151"/>
-      <c r="J24" s="178"/>
+      <c r="I24" s="197"/>
+      <c r="J24" s="175"/>
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="186"/>
-      <c r="B25" s="180"/>
-      <c r="C25" s="179" t="str">
+      <c r="A25" s="184"/>
+      <c r="B25" s="177"/>
+      <c r="C25" s="176" t="str">
         <f>'input data'!B20</f>
         <v>MUNDRA</v>
       </c>
-      <c r="D25" s="180"/>
-      <c r="E25" s="179" t="str">
+      <c r="D25" s="177"/>
+      <c r="E25" s="176" t="str">
         <f>'input data'!B21</f>
         <v>GUAYAQUIL</v>
       </c>
-      <c r="F25" s="184"/>
-      <c r="G25" s="180"/>
-      <c r="H25" s="179" t="str">
+      <c r="F25" s="181"/>
+      <c r="G25" s="177"/>
+      <c r="H25" s="176" t="str">
         <f>'input data'!B22</f>
         <v>GUAYAQUIL</v>
       </c>
-      <c r="I25" s="184"/>
-      <c r="J25" s="181"/>
+      <c r="I25" s="181"/>
+      <c r="J25" s="178"/>
     </row>
     <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="148" t="s">
+      <c r="A26" s="151" t="s">
         <v>51</v>
       </c>
-      <c r="B26" s="150" t="s">
+      <c r="B26" s="185" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="151"/>
-      <c r="D26" s="152"/>
-      <c r="E26" s="156" t="s">
+      <c r="C26" s="186"/>
+      <c r="D26" s="186"/>
+      <c r="E26" s="187"/>
+      <c r="F26" s="153" t="s">
         <v>53</v>
       </c>
-      <c r="F26" s="158" t="s">
-        <v>54</v>
-      </c>
-      <c r="G26" s="152"/>
+      <c r="G26" s="154"/>
       <c r="H26" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="I26" s="158" t="s">
+      <c r="I26" s="153" t="s">
+        <v>54</v>
+      </c>
+      <c r="J26" s="175"/>
+    </row>
+    <row r="27" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="152"/>
+      <c r="B27" s="188"/>
+      <c r="C27" s="189"/>
+      <c r="D27" s="189"/>
+      <c r="E27" s="190"/>
+      <c r="F27" s="176" t="s">
         <v>55</v>
       </c>
-      <c r="J26" s="178"/>
-    </row>
-    <row r="27" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="149"/>
-      <c r="B27" s="153"/>
-      <c r="C27" s="154"/>
-      <c r="D27" s="155"/>
-      <c r="E27" s="157"/>
-      <c r="F27" s="179" t="s">
+      <c r="G27" s="177"/>
+      <c r="H27" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="I27" s="176" t="s">
         <v>56</v>
       </c>
-      <c r="G27" s="180"/>
-      <c r="H27" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="I27" s="179" t="s">
-        <v>57</v>
-      </c>
-      <c r="J27" s="181"/>
-    </row>
-    <row r="28" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="77">
+      <c r="J27" s="178"/>
+    </row>
+    <row r="28" spans="1:14" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="106">
         <v>1</v>
       </c>
-      <c r="B28" s="139" t="str">
-        <f>'input data'!B26</f>
-        <v>Polished Granite Slabs</v>
+      <c r="B28" s="114" t="s">
+        <v>174</v>
       </c>
-      <c r="C28" s="140"/>
-      <c r="D28" s="141"/>
-      <c r="E28" s="21">
-        <v>68022390</v>
-      </c>
-      <c r="F28" s="142">
+      <c r="C28" s="115"/>
+      <c r="D28" s="115"/>
+      <c r="E28" s="116"/>
+      <c r="F28" s="145">
         <f>'input data'!B27</f>
         <v>155.75</v>
       </c>
-      <c r="G28" s="143"/>
-      <c r="H28" s="47">
+      <c r="G28" s="146"/>
+      <c r="H28" s="108">
         <f>'input data'!B28</f>
         <v>16.2</v>
       </c>
-      <c r="I28" s="144">
+      <c r="I28" s="147">
         <f>F28*H28</f>
         <v>2523.15</v>
       </c>
-      <c r="J28" s="145"/>
-    </row>
-    <row r="29" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="77">
+      <c r="J28" s="148"/>
+    </row>
+    <row r="29" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="107">
         <v>2</v>
       </c>
-      <c r="B29" s="139" t="str">
-        <f>'input data'!B29</f>
-        <v>Polished Granite Slabs</v>
+      <c r="B29" s="117" t="s">
+        <v>175</v>
       </c>
-      <c r="C29" s="140"/>
-      <c r="D29" s="141"/>
-      <c r="E29" s="62">
-        <v>68022390</v>
-      </c>
-      <c r="F29" s="146">
+      <c r="C29" s="118"/>
+      <c r="D29" s="118"/>
+      <c r="E29" s="119"/>
+      <c r="F29" s="149">
         <f>'input data'!B30</f>
         <v>168</v>
       </c>
-      <c r="G29" s="147"/>
-      <c r="H29" s="47">
+      <c r="G29" s="150"/>
+      <c r="H29" s="108">
         <f>'input data'!B31</f>
         <v>14.9</v>
       </c>
-      <c r="I29" s="144">
+      <c r="I29" s="147">
         <f t="shared" ref="I29:I30" si="0">F29*H29</f>
         <v>2503.2000000000003</v>
       </c>
-      <c r="J29" s="145"/>
-    </row>
-    <row r="30" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="77">
+      <c r="J29" s="148"/>
+    </row>
+    <row r="30" spans="1:14" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="107">
         <v>3</v>
       </c>
-      <c r="B30" s="139" t="str">
-        <f>'input data'!B32</f>
-        <v>Polished Granite Slabs</v>
+      <c r="B30" s="120" t="s">
+        <v>176</v>
       </c>
-      <c r="C30" s="140"/>
-      <c r="D30" s="140"/>
-      <c r="E30" s="63">
-        <v>68022390</v>
-      </c>
-      <c r="F30" s="142">
+      <c r="C30" s="121"/>
+      <c r="D30" s="121"/>
+      <c r="E30" s="122"/>
+      <c r="F30" s="145">
         <f>'input data'!B33</f>
         <v>159.25</v>
       </c>
-      <c r="G30" s="143"/>
-      <c r="H30" s="58">
+      <c r="G30" s="146"/>
+      <c r="H30" s="109">
         <f>'input data'!B34</f>
         <v>23.2</v>
       </c>
-      <c r="I30" s="144">
+      <c r="I30" s="147">
         <f t="shared" si="0"/>
         <v>3694.6</v>
       </c>
-      <c r="J30" s="145"/>
+      <c r="J30" s="148"/>
     </row>
     <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="76" t="s">
+      <c r="A31" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="45"/>
-      <c r="C31" s="45" t="s">
+      <c r="B31" s="44"/>
+      <c r="C31" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="D31" s="45" t="s">
+      <c r="D31" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="E31" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="E31" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="F31" s="45"/>
-      <c r="G31" s="45"/>
-      <c r="H31" s="60"/>
-      <c r="I31" s="53"/>
-      <c r="J31" s="54"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="57"/>
+      <c r="I31" s="51"/>
+      <c r="J31" s="52"/>
     </row>
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="171" t="str">
+      <c r="A32" s="167" t="str">
         <f>UPPER('input data'!B24)</f>
         <v>MSDU1249256</v>
       </c>
-      <c r="B32" s="154"/>
-      <c r="C32" s="73">
+      <c r="B32" s="168"/>
+      <c r="C32" s="68">
         <f>'input data'!B25</f>
         <v>276</v>
       </c>
-      <c r="D32" s="45" t="s">
+      <c r="D32" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="E32" s="44" t="s">
+        <v>171</v>
+      </c>
+      <c r="F32" s="44"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="57"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="54"/>
+    </row>
+    <row r="33" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="71"/>
+      <c r="B33" s="44"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="57"/>
+      <c r="I33" s="49"/>
+      <c r="J33" s="56"/>
+    </row>
+    <row r="34" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="E32" s="45" t="s">
-        <v>173</v>
-      </c>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="60"/>
-      <c r="I32" s="45"/>
-      <c r="J32" s="56"/>
-    </row>
-    <row r="33" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="76"/>
-      <c r="B33" s="45"/>
-      <c r="C33" s="45"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="45"/>
-      <c r="G33" s="45"/>
-      <c r="H33" s="60"/>
-      <c r="I33" s="51"/>
-      <c r="J33" s="59"/>
-    </row>
-    <row r="34" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="61" t="s">
-        <v>61</v>
-      </c>
-      <c r="B34" s="53"/>
-      <c r="C34" s="53"/>
-      <c r="D34" s="53"/>
-      <c r="E34" s="53"/>
-      <c r="F34" s="53"/>
-      <c r="G34" s="53"/>
-      <c r="H34" s="54"/>
-      <c r="I34" s="172">
+      <c r="B34" s="51"/>
+      <c r="C34" s="51"/>
+      <c r="D34" s="51"/>
+      <c r="E34" s="51"/>
+      <c r="F34" s="51"/>
+      <c r="G34" s="51"/>
+      <c r="H34" s="52"/>
+      <c r="I34" s="169">
         <f>SUM(I28:J33)</f>
         <v>8720.9500000000007</v>
       </c>
-      <c r="J34" s="173"/>
+      <c r="J34" s="170"/>
     </row>
     <row r="35" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="175" t="s">
-        <v>170</v>
+      <c r="A35" s="172" t="s">
+        <v>168</v>
       </c>
-      <c r="B35" s="176"/>
-      <c r="C35" s="176"/>
-      <c r="D35" s="176"/>
-      <c r="E35" s="176"/>
-      <c r="F35" s="176"/>
-      <c r="G35" s="176"/>
-      <c r="H35" s="177"/>
-      <c r="I35" s="174"/>
-      <c r="J35" s="173"/>
-    </row>
-    <row r="36" spans="1:12" s="98" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="130" t="s">
-        <v>152</v>
+      <c r="B35" s="173"/>
+      <c r="C35" s="173"/>
+      <c r="D35" s="173"/>
+      <c r="E35" s="173"/>
+      <c r="F35" s="173"/>
+      <c r="G35" s="173"/>
+      <c r="H35" s="174"/>
+      <c r="I35" s="171"/>
+      <c r="J35" s="170"/>
+    </row>
+    <row r="36" spans="1:12" s="91" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="136" t="s">
+        <v>150</v>
       </c>
-      <c r="B36" s="131"/>
-      <c r="C36" s="131"/>
-      <c r="D36" s="131"/>
-      <c r="E36" s="131"/>
-      <c r="F36" s="131"/>
-      <c r="G36" s="131"/>
-      <c r="H36" s="131"/>
-      <c r="I36" s="131"/>
-      <c r="J36" s="132"/>
-    </row>
-    <row r="37" spans="1:12" s="98" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="106" t="s">
+      <c r="B36" s="137"/>
+      <c r="C36" s="137"/>
+      <c r="D36" s="137"/>
+      <c r="E36" s="137"/>
+      <c r="F36" s="137"/>
+      <c r="G36" s="137"/>
+      <c r="H36" s="137"/>
+      <c r="I36" s="137"/>
+      <c r="J36" s="138"/>
+    </row>
+    <row r="37" spans="1:12" s="91" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="99" t="s">
+        <v>143</v>
+      </c>
+      <c r="B37" s="92"/>
+      <c r="C37" s="92"/>
+      <c r="D37" s="92"/>
+      <c r="E37" s="92" t="s">
+        <v>146</v>
+      </c>
+      <c r="F37" s="95"/>
+      <c r="G37" s="95"/>
+      <c r="H37" s="95"/>
+      <c r="I37" s="95"/>
+      <c r="J37" s="96"/>
+    </row>
+    <row r="38" spans="1:12" s="91" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="99" t="s">
+        <v>144</v>
+      </c>
+      <c r="B38" s="95"/>
+      <c r="C38" s="95"/>
+      <c r="D38" s="95"/>
+      <c r="E38" s="92" t="s">
+        <v>147</v>
+      </c>
+      <c r="F38" s="95"/>
+      <c r="G38" s="95"/>
+      <c r="H38" s="95"/>
+      <c r="I38" s="95"/>
+      <c r="J38" s="96"/>
+    </row>
+    <row r="39" spans="1:12" s="91" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="100" t="s">
         <v>145</v>
       </c>
-      <c r="B37" s="99"/>
-      <c r="C37" s="99"/>
-      <c r="D37" s="99"/>
-      <c r="E37" s="99" t="s">
+      <c r="B39" s="101"/>
+      <c r="C39" s="101"/>
+      <c r="D39" s="101"/>
+      <c r="E39" s="102" t="s">
         <v>148</v>
       </c>
-      <c r="F37" s="102"/>
-      <c r="G37" s="102"/>
-      <c r="H37" s="102"/>
-      <c r="I37" s="102"/>
-      <c r="J37" s="103"/>
-    </row>
-    <row r="38" spans="1:12" s="98" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="106" t="s">
-        <v>146</v>
+      <c r="F39" s="101"/>
+      <c r="G39" s="101"/>
+      <c r="H39" s="101"/>
+      <c r="I39" s="101"/>
+      <c r="J39" s="103"/>
+    </row>
+    <row r="40" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="139" t="s">
+        <v>61</v>
       </c>
-      <c r="B38" s="102"/>
-      <c r="C38" s="102"/>
-      <c r="D38" s="102"/>
-      <c r="E38" s="99" t="s">
-        <v>149</v>
+      <c r="B40" s="140"/>
+      <c r="C40" s="140"/>
+      <c r="D40" s="141"/>
+      <c r="E40" s="142" t="s">
+        <v>104</v>
       </c>
-      <c r="F38" s="102"/>
-      <c r="G38" s="102"/>
-      <c r="H38" s="102"/>
-      <c r="I38" s="102"/>
-      <c r="J38" s="103"/>
-    </row>
-    <row r="39" spans="1:12" s="98" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="107" t="s">
-        <v>147</v>
-      </c>
-      <c r="B39" s="108"/>
-      <c r="C39" s="108"/>
-      <c r="D39" s="108"/>
-      <c r="E39" s="109" t="s">
-        <v>150</v>
-      </c>
-      <c r="F39" s="108"/>
-      <c r="G39" s="108"/>
-      <c r="H39" s="108"/>
-      <c r="I39" s="108"/>
-      <c r="J39" s="110"/>
-    </row>
-    <row r="40" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="133" t="s">
+      <c r="F40" s="143"/>
+      <c r="G40" s="143"/>
+      <c r="H40" s="143"/>
+      <c r="I40" s="143"/>
+      <c r="J40" s="144"/>
+      <c r="L40" s="91"/>
+    </row>
+    <row r="41" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="155" t="s">
         <v>62</v>
       </c>
-      <c r="B40" s="134"/>
-      <c r="C40" s="134"/>
-      <c r="D40" s="135"/>
-      <c r="E40" s="136" t="s">
-        <v>106</v>
+      <c r="B41" s="156"/>
+      <c r="C41" s="156"/>
+      <c r="D41" s="157"/>
+      <c r="E41" s="50" t="s">
+        <v>105</v>
       </c>
-      <c r="F40" s="137"/>
-      <c r="G40" s="137"/>
-      <c r="H40" s="137"/>
-      <c r="I40" s="137"/>
-      <c r="J40" s="138"/>
-      <c r="L40" s="98"/>
-    </row>
-    <row r="41" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="159" t="s">
+      <c r="F41" s="51"/>
+      <c r="G41" s="51"/>
+      <c r="H41" s="51"/>
+      <c r="I41" s="51"/>
+      <c r="J41" s="52"/>
+      <c r="L41" s="91"/>
+    </row>
+    <row r="42" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="158"/>
+      <c r="B42" s="159"/>
+      <c r="C42" s="159"/>
+      <c r="D42" s="160"/>
+      <c r="E42" s="53"/>
+      <c r="F42" s="44"/>
+      <c r="G42" s="44"/>
+      <c r="H42" s="44"/>
+      <c r="I42" s="44"/>
+      <c r="J42" s="54"/>
+    </row>
+    <row r="43" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="161" t="s">
         <v>63</v>
       </c>
-      <c r="B41" s="160"/>
-      <c r="C41" s="160"/>
-      <c r="D41" s="161"/>
-      <c r="E41" s="52" t="s">
-        <v>107</v>
-      </c>
-      <c r="F41" s="53"/>
-      <c r="G41" s="53"/>
-      <c r="H41" s="53"/>
-      <c r="I41" s="53"/>
-      <c r="J41" s="54"/>
-      <c r="L41" s="98"/>
-    </row>
-    <row r="42" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="162"/>
-      <c r="B42" s="163"/>
-      <c r="C42" s="163"/>
-      <c r="D42" s="164"/>
-      <c r="E42" s="55"/>
-      <c r="F42" s="45"/>
-      <c r="G42" s="45"/>
-      <c r="H42" s="45"/>
-      <c r="I42" s="45"/>
-      <c r="J42" s="56"/>
-    </row>
-    <row r="43" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="165" t="s">
+      <c r="B43" s="162"/>
+      <c r="C43" s="162"/>
+      <c r="D43" s="163"/>
+      <c r="E43" s="53"/>
+      <c r="F43" s="44"/>
+      <c r="G43" s="44"/>
+      <c r="H43" s="44"/>
+      <c r="I43" s="44"/>
+      <c r="J43" s="54"/>
+    </row>
+    <row r="44" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="164"/>
+      <c r="B44" s="165"/>
+      <c r="C44" s="165"/>
+      <c r="D44" s="166"/>
+      <c r="E44" s="73" t="s">
         <v>64</v>
       </c>
-      <c r="B43" s="166"/>
-      <c r="C43" s="166"/>
-      <c r="D43" s="167"/>
-      <c r="E43" s="55"/>
-      <c r="F43" s="45"/>
-      <c r="G43" s="45"/>
-      <c r="H43" s="45"/>
-      <c r="I43" s="45"/>
-      <c r="J43" s="56"/>
-    </row>
-    <row r="44" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="168"/>
-      <c r="B44" s="169"/>
-      <c r="C44" s="169"/>
-      <c r="D44" s="170"/>
-      <c r="E44" s="78" t="s">
-        <v>65</v>
-      </c>
-      <c r="F44" s="51"/>
-      <c r="G44" s="51"/>
-      <c r="H44" s="51"/>
-      <c r="I44" s="51"/>
-      <c r="J44" s="59"/>
+      <c r="F44" s="49"/>
+      <c r="G44" s="49"/>
+      <c r="H44" s="49"/>
+      <c r="I44" s="49"/>
+      <c r="J44" s="56"/>
     </row>
     <row r="45" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="46" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -33831,7 +33838,7 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="66">
+  <mergeCells count="65">
     <mergeCell ref="A1:J2"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="H3:J3"/>
@@ -33865,39 +33872,38 @@
     <mergeCell ref="E22:G23"/>
     <mergeCell ref="E12:G13"/>
     <mergeCell ref="H12:J13"/>
+    <mergeCell ref="A41:D42"/>
+    <mergeCell ref="A43:D44"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="I34:J35"/>
+    <mergeCell ref="A35:H35"/>
+    <mergeCell ref="A5:D13"/>
+    <mergeCell ref="A36:J36"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="E40:J40"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="F26:G26"/>
     <mergeCell ref="I26:J26"/>
     <mergeCell ref="F27:G27"/>
     <mergeCell ref="I27:J27"/>
     <mergeCell ref="H22:J23"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A25:B25"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="E14:J14"/>
+    <mergeCell ref="E15:J20"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="E25:G25"/>
     <mergeCell ref="H25:J25"/>
-    <mergeCell ref="A41:D42"/>
-    <mergeCell ref="A43:D44"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="I34:J35"/>
-    <mergeCell ref="A35:H35"/>
-    <mergeCell ref="E14:J14"/>
-    <mergeCell ref="E15:J20"/>
-    <mergeCell ref="A5:D13"/>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="E40:J40"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="B26:E27"/>
   </mergeCells>
   <conditionalFormatting sqref="A35:A36">
     <cfRule type="containsBlanks" dxfId="0" priority="1">
@@ -33914,8 +33920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J994"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -33933,172 +33939,172 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="276" t="s">
+      <c r="A1" s="285" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="286" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="116"/>
-      <c r="J1" s="116"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="277" t="s">
-        <v>67</v>
-      </c>
-      <c r="B2" s="188"/>
-      <c r="C2" s="188"/>
-      <c r="D2" s="188"/>
-      <c r="E2" s="188"/>
-      <c r="F2" s="216"/>
-      <c r="G2" s="215" t="s">
+      <c r="B2" s="192"/>
+      <c r="C2" s="192"/>
+      <c r="D2" s="192"/>
+      <c r="E2" s="192"/>
+      <c r="F2" s="221"/>
+      <c r="G2" s="220" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="216"/>
-      <c r="I2" s="278" t="s">
+      <c r="H2" s="221"/>
+      <c r="I2" s="287" t="s">
         <v>36</v>
       </c>
-      <c r="J2" s="189"/>
+      <c r="J2" s="193"/>
     </row>
     <row r="3" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="279" t="s">
-        <v>105</v>
+      <c r="A3" s="288" t="s">
+        <v>103</v>
       </c>
-      <c r="B3" s="154"/>
-      <c r="C3" s="154"/>
-      <c r="D3" s="154"/>
-      <c r="E3" s="154"/>
-      <c r="F3" s="155"/>
-      <c r="G3" s="217" t="str">
+      <c r="B3" s="168"/>
+      <c r="C3" s="168"/>
+      <c r="D3" s="168"/>
+      <c r="E3" s="168"/>
+      <c r="F3" s="183"/>
+      <c r="G3" s="222" t="str">
         <f>'input data'!B3</f>
         <v>BK002/25-26</v>
       </c>
-      <c r="H3" s="180"/>
-      <c r="I3" s="218">
+      <c r="H3" s="177"/>
+      <c r="I3" s="223">
         <f>'input data'!B4</f>
         <v>45945</v>
       </c>
-      <c r="J3" s="220"/>
+      <c r="J3" s="225"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="193" t="s">
-        <v>154</v>
+      <c r="A4" s="198" t="s">
+        <v>152</v>
       </c>
-      <c r="B4" s="254"/>
-      <c r="C4" s="254"/>
-      <c r="D4" s="254"/>
-      <c r="E4" s="254"/>
-      <c r="F4" s="255"/>
-      <c r="G4" s="259" t="s">
+      <c r="B4" s="263"/>
+      <c r="C4" s="263"/>
+      <c r="D4" s="263"/>
+      <c r="E4" s="263"/>
+      <c r="F4" s="264"/>
+      <c r="G4" s="268" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="151"/>
-      <c r="I4" s="151"/>
-      <c r="J4" s="178"/>
+      <c r="H4" s="197"/>
+      <c r="I4" s="197"/>
+      <c r="J4" s="175"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="193"/>
-      <c r="B5" s="254"/>
-      <c r="C5" s="254"/>
-      <c r="D5" s="254"/>
-      <c r="E5" s="254"/>
-      <c r="F5" s="255"/>
-      <c r="G5" s="179" t="str">
+      <c r="A5" s="198"/>
+      <c r="B5" s="263"/>
+      <c r="C5" s="263"/>
+      <c r="D5" s="263"/>
+      <c r="E5" s="263"/>
+      <c r="F5" s="264"/>
+      <c r="G5" s="176" t="str">
         <f>'input data'!B6</f>
         <v>AD240725023182F</v>
       </c>
-      <c r="H5" s="184"/>
-      <c r="I5" s="184"/>
-      <c r="J5" s="181"/>
+      <c r="H5" s="181"/>
+      <c r="I5" s="181"/>
+      <c r="J5" s="178"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="193"/>
-      <c r="B6" s="254"/>
-      <c r="C6" s="254"/>
-      <c r="D6" s="254"/>
-      <c r="E6" s="254"/>
-      <c r="F6" s="255"/>
-      <c r="G6" s="80"/>
-      <c r="H6" s="81"/>
-      <c r="I6" s="81"/>
-      <c r="J6" s="82"/>
+      <c r="A6" s="198"/>
+      <c r="B6" s="263"/>
+      <c r="C6" s="263"/>
+      <c r="D6" s="263"/>
+      <c r="E6" s="263"/>
+      <c r="F6" s="264"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="77"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="193"/>
-      <c r="B7" s="254"/>
-      <c r="C7" s="254"/>
-      <c r="D7" s="254"/>
-      <c r="E7" s="254"/>
-      <c r="F7" s="255"/>
-      <c r="G7" s="25" t="s">
-        <v>68</v>
+      <c r="A7" s="198"/>
+      <c r="B7" s="263"/>
+      <c r="C7" s="263"/>
+      <c r="D7" s="263"/>
+      <c r="E7" s="263"/>
+      <c r="F7" s="264"/>
+      <c r="G7" s="24" t="s">
+        <v>67</v>
       </c>
       <c r="H7" s="15"/>
       <c r="I7" s="15"/>
-      <c r="J7" s="83"/>
+      <c r="J7" s="78"/>
     </row>
     <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="193"/>
-      <c r="B8" s="254"/>
-      <c r="C8" s="254"/>
-      <c r="D8" s="254"/>
-      <c r="E8" s="254"/>
-      <c r="F8" s="255"/>
-      <c r="G8" s="84" t="s">
-        <v>109</v>
+      <c r="A8" s="198"/>
+      <c r="B8" s="263"/>
+      <c r="C8" s="263"/>
+      <c r="D8" s="263"/>
+      <c r="E8" s="263"/>
+      <c r="F8" s="264"/>
+      <c r="G8" s="79" t="s">
+        <v>107</v>
       </c>
-      <c r="H8" s="85"/>
-      <c r="I8" s="85"/>
-      <c r="J8" s="86"/>
+      <c r="H8" s="80"/>
+      <c r="I8" s="80"/>
+      <c r="J8" s="81"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="193"/>
-      <c r="B9" s="254"/>
-      <c r="C9" s="254"/>
-      <c r="D9" s="254"/>
-      <c r="E9" s="254"/>
-      <c r="F9" s="255"/>
-      <c r="G9" s="84" t="s">
-        <v>129</v>
+      <c r="A9" s="198"/>
+      <c r="B9" s="263"/>
+      <c r="C9" s="263"/>
+      <c r="D9" s="263"/>
+      <c r="E9" s="263"/>
+      <c r="F9" s="264"/>
+      <c r="G9" s="79" t="s">
+        <v>127</v>
       </c>
-      <c r="H9" s="85"/>
-      <c r="I9" s="85"/>
-      <c r="J9" s="86"/>
+      <c r="H9" s="80"/>
+      <c r="I9" s="80"/>
+      <c r="J9" s="81"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="256"/>
-      <c r="B10" s="257"/>
-      <c r="C10" s="257"/>
-      <c r="D10" s="257"/>
-      <c r="E10" s="257"/>
-      <c r="F10" s="258"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="56"/>
+      <c r="A10" s="265"/>
+      <c r="B10" s="266"/>
+      <c r="C10" s="266"/>
+      <c r="D10" s="266"/>
+      <c r="E10" s="266"/>
+      <c r="F10" s="267"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="54"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="260" t="s">
+      <c r="A11" s="269" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="151"/>
-      <c r="C11" s="151"/>
-      <c r="D11" s="151"/>
-      <c r="E11" s="151"/>
+      <c r="B11" s="197"/>
+      <c r="C11" s="197"/>
+      <c r="D11" s="197"/>
+      <c r="E11" s="197"/>
       <c r="F11" s="15"/>
-      <c r="G11" s="104" t="s">
+      <c r="G11" s="97" t="s">
         <v>45</v>
       </c>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="54"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="52"/>
     </row>
     <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="236" t="str">
+      <c r="A12" s="245" t="str">
         <f>'input data'!B7</f>
         <v>ZHIÑIN MENDIETA ROSA LOURDES
 RUC: 0105370399001
@@ -34107,446 +34113,431 @@
 Referencia: DIAGONAL A LA HOSTERIA CABALLO CAMPANA
 Cuenca - Ecuador</v>
       </c>
-      <c r="B12" s="237"/>
-      <c r="C12" s="237"/>
-      <c r="D12" s="237"/>
-      <c r="E12" s="237"/>
-      <c r="F12" s="237"/>
-      <c r="G12" s="236" t="str">
-        <f>'input data'!B8</f>
-        <v>DAPSE EXPRESS INTERNATIONAL LOGISTICS AND TRADE 
-RUC 172011272001
-operaciones@dapseexpress.com
-Teléfono: 0987681580
-QUITO-ECUADOR</v>
+      <c r="B12" s="246"/>
+      <c r="C12" s="246"/>
+      <c r="D12" s="246"/>
+      <c r="E12" s="246"/>
+      <c r="F12" s="246"/>
+      <c r="G12" s="245"/>
+      <c r="H12" s="246"/>
+      <c r="I12" s="246"/>
+      <c r="J12" s="247"/>
+    </row>
+    <row r="13" spans="1:10" ht="108.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="251"/>
+      <c r="B13" s="252"/>
+      <c r="C13" s="252"/>
+      <c r="D13" s="246"/>
+      <c r="E13" s="246"/>
+      <c r="F13" s="246"/>
+      <c r="G13" s="248"/>
+      <c r="H13" s="249"/>
+      <c r="I13" s="249"/>
+      <c r="J13" s="250"/>
+    </row>
+    <row r="14" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="253" t="s">
+        <v>70</v>
       </c>
-      <c r="H12" s="237"/>
-      <c r="I12" s="237"/>
-      <c r="J12" s="238"/>
-    </row>
-    <row r="13" spans="1:10" ht="108.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="242"/>
-      <c r="B13" s="243"/>
-      <c r="C13" s="243"/>
-      <c r="D13" s="237"/>
-      <c r="E13" s="237"/>
-      <c r="F13" s="237"/>
-      <c r="G13" s="239"/>
-      <c r="H13" s="240"/>
-      <c r="I13" s="240"/>
-      <c r="J13" s="241"/>
-    </row>
-    <row r="14" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="244" t="s">
+      <c r="B14" s="254"/>
+      <c r="C14" s="254"/>
+      <c r="D14" s="232" t="s">
         <v>71</v>
       </c>
-      <c r="B14" s="245"/>
-      <c r="C14" s="245"/>
-      <c r="D14" s="226" t="s">
-        <v>72</v>
+      <c r="E14" s="256"/>
+      <c r="F14" s="257"/>
+      <c r="G14" s="232" t="s">
+        <v>68</v>
       </c>
-      <c r="E14" s="247"/>
-      <c r="F14" s="248"/>
-      <c r="G14" s="226" t="s">
+      <c r="H14" s="233"/>
+      <c r="I14" s="234" t="s">
         <v>69</v>
       </c>
-      <c r="H14" s="227"/>
-      <c r="I14" s="228" t="s">
-        <v>70</v>
-      </c>
-      <c r="J14" s="229"/>
+      <c r="J14" s="235"/>
     </row>
     <row r="15" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="186"/>
-      <c r="B15" s="246"/>
-      <c r="C15" s="246"/>
-      <c r="D15" s="249" t="str">
+      <c r="A15" s="184"/>
+      <c r="B15" s="255"/>
+      <c r="C15" s="255"/>
+      <c r="D15" s="258" t="str">
         <f>'input data'!B19</f>
         <v>MUNDRA</v>
       </c>
-      <c r="E15" s="250"/>
-      <c r="F15" s="251"/>
-      <c r="G15" s="230" t="s">
+      <c r="E15" s="259"/>
+      <c r="F15" s="260"/>
+      <c r="G15" s="236" t="s">
         <v>49</v>
       </c>
-      <c r="H15" s="231"/>
-      <c r="I15" s="232" t="str">
+      <c r="H15" s="237"/>
+      <c r="I15" s="238" t="str">
         <f>'input data'!B23</f>
         <v>ECUADOR</v>
       </c>
-      <c r="J15" s="233"/>
+      <c r="J15" s="239"/>
     </row>
     <row r="16" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="244" t="s">
+      <c r="A16" s="253" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" s="254"/>
+      <c r="C16" s="254"/>
+      <c r="D16" s="261" t="s">
         <v>73</v>
       </c>
-      <c r="B16" s="245"/>
-      <c r="C16" s="245"/>
-      <c r="D16" s="252" t="s">
-        <v>74</v>
+      <c r="E16" s="262"/>
+      <c r="F16" s="262"/>
+      <c r="G16" s="240" t="s">
+        <v>154</v>
       </c>
-      <c r="E16" s="253"/>
-      <c r="F16" s="253"/>
-      <c r="G16" s="234" t="s">
-        <v>156</v>
-      </c>
-      <c r="H16" s="235"/>
-      <c r="I16" s="235"/>
-      <c r="J16" s="229"/>
+      <c r="H16" s="241"/>
+      <c r="I16" s="241"/>
+      <c r="J16" s="235"/>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="171"/>
-      <c r="B17" s="174"/>
-      <c r="C17" s="174"/>
-      <c r="D17" s="185" t="str">
+      <c r="A17" s="167"/>
+      <c r="B17" s="171"/>
+      <c r="C17" s="171"/>
+      <c r="D17" s="182" t="str">
         <f>'input data'!B19</f>
         <v>MUNDRA</v>
       </c>
-      <c r="E17" s="261"/>
-      <c r="F17" s="261"/>
-      <c r="G17" s="185" t="str">
+      <c r="E17" s="270"/>
+      <c r="F17" s="270"/>
+      <c r="G17" s="182" t="str">
         <f>'input data'!B17</f>
         <v>FOB</v>
       </c>
-      <c r="H17" s="261"/>
-      <c r="I17" s="261"/>
-      <c r="J17" s="262"/>
+      <c r="H17" s="270"/>
+      <c r="I17" s="270"/>
+      <c r="J17" s="271"/>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="263" t="s">
+      <c r="A18" s="272" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="264"/>
-      <c r="C18" s="264"/>
-      <c r="D18" s="263" t="s">
+      <c r="B18" s="273"/>
+      <c r="C18" s="273"/>
+      <c r="D18" s="272" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="264"/>
-      <c r="F18" s="265"/>
-      <c r="G18" s="247" t="s">
-        <v>75</v>
+      <c r="E18" s="273"/>
+      <c r="F18" s="274"/>
+      <c r="G18" s="256" t="s">
+        <v>74</v>
       </c>
-      <c r="H18" s="247"/>
-      <c r="I18" s="247"/>
-      <c r="J18" s="248"/>
+      <c r="H18" s="256"/>
+      <c r="I18" s="256"/>
+      <c r="J18" s="257"/>
     </row>
     <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="266" t="str">
+      <c r="A19" s="275" t="str">
         <f>'input data'!B21</f>
         <v>GUAYAQUIL</v>
       </c>
-      <c r="B19" s="267"/>
-      <c r="C19" s="267"/>
-      <c r="D19" s="266" t="str">
+      <c r="B19" s="276"/>
+      <c r="C19" s="276"/>
+      <c r="D19" s="275" t="str">
         <f>'input data'!B22</f>
         <v>GUAYAQUIL</v>
       </c>
-      <c r="E19" s="267"/>
-      <c r="F19" s="270"/>
-      <c r="G19" s="272" t="str">
+      <c r="E19" s="276"/>
+      <c r="F19" s="279"/>
+      <c r="G19" s="281" t="str">
         <f>'input data'!B18</f>
         <v>30% Advance and Remaining Against BL within 7 days</v>
       </c>
-      <c r="H19" s="272"/>
-      <c r="I19" s="272"/>
-      <c r="J19" s="273"/>
+      <c r="H19" s="281"/>
+      <c r="I19" s="281"/>
+      <c r="J19" s="282"/>
     </row>
     <row r="20" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="268"/>
-      <c r="B20" s="269"/>
-      <c r="C20" s="269"/>
-      <c r="D20" s="268"/>
-      <c r="E20" s="269"/>
-      <c r="F20" s="271"/>
-      <c r="G20" s="274"/>
-      <c r="H20" s="274"/>
-      <c r="I20" s="274"/>
-      <c r="J20" s="275"/>
+      <c r="A20" s="277"/>
+      <c r="B20" s="278"/>
+      <c r="C20" s="278"/>
+      <c r="D20" s="277"/>
+      <c r="E20" s="278"/>
+      <c r="F20" s="280"/>
+      <c r="G20" s="283"/>
+      <c r="H20" s="283"/>
+      <c r="I20" s="283"/>
+      <c r="J20" s="284"/>
     </row>
     <row r="21" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="105"/>
-      <c r="B21" s="46"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="87"/>
+      <c r="A21" s="98"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="82"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="88" t="s">
+      <c r="A22" s="83" t="s">
         <v>51</v>
       </c>
-      <c r="B22" s="179" t="s">
-        <v>76</v>
+      <c r="B22" s="242" t="s">
+        <v>173</v>
       </c>
-      <c r="C22" s="180"/>
-      <c r="D22" s="179" t="s">
-        <v>52</v>
+      <c r="C22" s="243"/>
+      <c r="D22" s="243"/>
+      <c r="E22" s="243"/>
+      <c r="F22" s="243"/>
+      <c r="G22" s="243"/>
+      <c r="H22" s="244"/>
+      <c r="I22" s="176" t="s">
+        <v>55</v>
       </c>
-      <c r="E22" s="184"/>
-      <c r="F22" s="184"/>
-      <c r="G22" s="89"/>
-      <c r="H22" s="90"/>
-      <c r="I22" s="179" t="s">
-        <v>56</v>
-      </c>
-      <c r="J22" s="181"/>
-    </row>
-    <row r="23" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="77">
+      <c r="J22" s="178"/>
+    </row>
+    <row r="23" spans="1:10" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="72">
         <v>1</v>
       </c>
-      <c r="B23" s="221">
-        <f>'Invoice rockstone'!E28</f>
-        <v>68022390</v>
+      <c r="B23" s="226" t="str">
+        <f>'Invoice rockstone'!B28</f>
+        <v>Black Forest Granite Slabs (Polished)
+Size: 2.50 Length X 0.70 Height, Thickness : 18 mm</v>
       </c>
-      <c r="C23" s="222"/>
-      <c r="D23" s="139" t="str">
-        <f>'Invoice rockstone'!B28</f>
-        <v>Polished Granite Slabs</v>
-      </c>
-      <c r="E23" s="223"/>
-      <c r="F23" s="223"/>
-      <c r="G23" s="223"/>
-      <c r="H23" s="222"/>
-      <c r="I23" s="224">
+      <c r="C23" s="227"/>
+      <c r="D23" s="227"/>
+      <c r="E23" s="227"/>
+      <c r="F23" s="227"/>
+      <c r="G23" s="227"/>
+      <c r="H23" s="228"/>
+      <c r="I23" s="229">
         <f>'Invoice rockstone'!F28</f>
         <v>155.75</v>
       </c>
-      <c r="J23" s="145"/>
-    </row>
-    <row r="24" spans="1:10" s="57" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="77">
+      <c r="J23" s="148"/>
+    </row>
+    <row r="24" spans="1:10" s="55" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="72">
         <v>2</v>
       </c>
-      <c r="B24" s="221">
-        <f>'Invoice rockstone'!E29</f>
-        <v>68022390</v>
+      <c r="B24" s="226" t="str">
+        <f>'Invoice rockstone'!B29</f>
+        <v>P White Granite Slabs (Polished)
+Size: 2.50 Length X 0.70 Height, Thickness : 18 mm</v>
       </c>
-      <c r="C24" s="222"/>
-      <c r="D24" s="139" t="str">
-        <f>'Invoice rockstone'!B29</f>
-        <v>Polished Granite Slabs</v>
-      </c>
-      <c r="E24" s="223"/>
-      <c r="F24" s="223"/>
-      <c r="G24" s="223"/>
-      <c r="H24" s="222"/>
-      <c r="I24" s="224">
+      <c r="C24" s="227"/>
+      <c r="D24" s="227"/>
+      <c r="E24" s="227"/>
+      <c r="F24" s="227"/>
+      <c r="G24" s="227"/>
+      <c r="H24" s="228"/>
+      <c r="I24" s="229">
         <f>'Invoice rockstone'!F29</f>
         <v>168</v>
       </c>
-      <c r="J24" s="145"/>
-    </row>
-    <row r="25" spans="1:10" s="57" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="77">
+      <c r="J24" s="148"/>
+    </row>
+    <row r="25" spans="1:10" s="55" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="72">
         <v>3</v>
       </c>
-      <c r="B25" s="221">
-        <f>'Invoice rockstone'!E30</f>
-        <v>68022390</v>
+      <c r="B25" s="226" t="str">
+        <f>'Invoice rockstone'!B30</f>
+        <v>Alaska White Granite Slabs (Polished)
+Size: 2.50 Length X 0.70 Height, Thickness : 18 mm</v>
       </c>
-      <c r="C25" s="222"/>
-      <c r="D25" s="139" t="str">
-        <f>'Invoice rockstone'!B30</f>
-        <v>Polished Granite Slabs</v>
-      </c>
-      <c r="E25" s="223"/>
-      <c r="F25" s="223"/>
-      <c r="G25" s="223"/>
-      <c r="H25" s="222"/>
-      <c r="I25" s="224">
+      <c r="C25" s="227"/>
+      <c r="D25" s="227"/>
+      <c r="E25" s="227"/>
+      <c r="F25" s="227"/>
+      <c r="G25" s="227"/>
+      <c r="H25" s="228"/>
+      <c r="I25" s="229">
         <f>'Invoice rockstone'!F30</f>
         <v>159.25</v>
       </c>
-      <c r="J25" s="145"/>
+      <c r="J25" s="148"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="91" t="s">
-        <v>77</v>
+      <c r="A26" s="84" t="s">
+        <v>75</v>
       </c>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="225">
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="230">
         <f>SUM(I23:J25)</f>
         <v>483</v>
       </c>
-      <c r="J26" s="145"/>
+      <c r="J26" s="231"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="50"/>
-      <c r="B27" s="45"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="45"/>
-      <c r="I27" s="81"/>
-      <c r="J27" s="82"/>
+      <c r="A27" s="48"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="76"/>
+      <c r="J27" s="77"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="185" t="s">
-        <v>78</v>
+      <c r="A28" s="182" t="s">
+        <v>76</v>
       </c>
-      <c r="B28" s="154"/>
-      <c r="C28" s="81" t="s">
+      <c r="B28" s="168"/>
+      <c r="C28" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="261" t="s">
+      <c r="D28" s="270" t="s">
+        <v>57</v>
+      </c>
+      <c r="E28" s="168"/>
+      <c r="F28" s="76" t="s">
         <v>58</v>
       </c>
-      <c r="E28" s="154"/>
-      <c r="F28" s="81" t="s">
-        <v>59</v>
-      </c>
-      <c r="G28" s="81"/>
-      <c r="H28" s="45"/>
-      <c r="I28" s="81"/>
-      <c r="J28" s="82"/>
+      <c r="G28" s="76"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="76"/>
+      <c r="J28" s="77"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="171" t="str">
+      <c r="A29" s="167" t="str">
         <f>UPPER('input data'!B24)</f>
         <v>MSDU1249256</v>
       </c>
-      <c r="B29" s="154"/>
-      <c r="C29" s="74">
+      <c r="B29" s="168"/>
+      <c r="C29" s="69">
         <f>'input data'!B25</f>
         <v>276</v>
       </c>
-      <c r="D29" s="283" t="s">
-        <v>79</v>
+      <c r="D29" s="292" t="s">
+        <v>77</v>
       </c>
-      <c r="E29" s="154"/>
-      <c r="F29" s="74" t="s">
-        <v>174</v>
+      <c r="E29" s="168"/>
+      <c r="F29" s="69" t="s">
+        <v>172</v>
       </c>
-      <c r="G29" s="74"/>
-      <c r="H29" s="45"/>
-      <c r="I29" s="45"/>
-      <c r="J29" s="56"/>
+      <c r="G29" s="69"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="54"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="92"/>
-      <c r="B30" s="93"/>
-      <c r="C30" s="93"/>
-      <c r="D30" s="93"/>
-      <c r="E30" s="93"/>
-      <c r="F30" s="93"/>
-      <c r="G30" s="93"/>
-      <c r="H30" s="93"/>
-      <c r="I30" s="93"/>
-      <c r="J30" s="94"/>
+      <c r="A30" s="85"/>
+      <c r="B30" s="86"/>
+      <c r="C30" s="86"/>
+      <c r="D30" s="86"/>
+      <c r="E30" s="86"/>
+      <c r="F30" s="86"/>
+      <c r="G30" s="86"/>
+      <c r="H30" s="86"/>
+      <c r="I30" s="86"/>
+      <c r="J30" s="87"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="92" t="s">
-        <v>80</v>
+      <c r="A31" s="85" t="s">
+        <v>78</v>
       </c>
-      <c r="B31" s="93"/>
-      <c r="C31" s="93" t="str">
+      <c r="B31" s="86"/>
+      <c r="C31" s="86" t="str">
         <f>'input data'!B15</f>
         <v>Wooden Crate Packing</v>
       </c>
-      <c r="D31" s="93"/>
-      <c r="E31" s="93"/>
-      <c r="F31" s="93"/>
-      <c r="G31" s="93"/>
-      <c r="H31" s="93"/>
-      <c r="I31" s="93"/>
-      <c r="J31" s="94"/>
+      <c r="D31" s="86"/>
+      <c r="E31" s="86"/>
+      <c r="F31" s="86"/>
+      <c r="G31" s="86"/>
+      <c r="H31" s="86"/>
+      <c r="I31" s="86"/>
+      <c r="J31" s="87"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="92" t="s">
+      <c r="A32" s="85" t="s">
+        <v>79</v>
+      </c>
+      <c r="B32" s="86"/>
+      <c r="C32" s="86"/>
+      <c r="D32" s="86"/>
+      <c r="E32" s="86"/>
+      <c r="F32" s="86"/>
+      <c r="G32" s="86"/>
+      <c r="H32" s="86"/>
+      <c r="I32" s="86"/>
+      <c r="J32" s="87"/>
+    </row>
+    <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="88"/>
+      <c r="B33" s="89"/>
+      <c r="C33" s="89"/>
+      <c r="D33" s="89"/>
+      <c r="E33" s="89"/>
+      <c r="F33" s="89"/>
+      <c r="G33" s="89"/>
+      <c r="H33" s="89"/>
+      <c r="I33" s="89"/>
+      <c r="J33" s="90"/>
+    </row>
+    <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="293" t="s">
+        <v>80</v>
+      </c>
+      <c r="B34" s="197"/>
+      <c r="C34" s="197"/>
+      <c r="D34" s="197"/>
+      <c r="E34" s="197"/>
+      <c r="F34" s="154"/>
+      <c r="G34" s="294" t="s">
+        <v>104</v>
+      </c>
+      <c r="H34" s="197"/>
+      <c r="I34" s="197"/>
+      <c r="J34" s="175"/>
+    </row>
+    <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="161" t="s">
+        <v>153</v>
+      </c>
+      <c r="B35" s="162"/>
+      <c r="C35" s="162"/>
+      <c r="D35" s="162"/>
+      <c r="E35" s="162"/>
+      <c r="F35" s="163"/>
+      <c r="G35" s="53"/>
+      <c r="H35" s="44"/>
+      <c r="I35" s="44"/>
+      <c r="J35" s="54"/>
+    </row>
+    <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="161"/>
+      <c r="B36" s="162"/>
+      <c r="C36" s="162"/>
+      <c r="D36" s="162"/>
+      <c r="E36" s="162"/>
+      <c r="F36" s="163"/>
+      <c r="G36" s="53"/>
+      <c r="H36" s="44"/>
+      <c r="I36" s="44"/>
+      <c r="J36" s="54"/>
+    </row>
+    <row r="37" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="289" t="s">
         <v>81</v>
       </c>
-      <c r="B32" s="93"/>
-      <c r="C32" s="93"/>
-      <c r="D32" s="93"/>
-      <c r="E32" s="93"/>
-      <c r="F32" s="93"/>
-      <c r="G32" s="93"/>
-      <c r="H32" s="93"/>
-      <c r="I32" s="93"/>
-      <c r="J32" s="94"/>
-    </row>
-    <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="95"/>
-      <c r="B33" s="96"/>
-      <c r="C33" s="96"/>
-      <c r="D33" s="96"/>
-      <c r="E33" s="96"/>
-      <c r="F33" s="96"/>
-      <c r="G33" s="96"/>
-      <c r="H33" s="96"/>
-      <c r="I33" s="96"/>
-      <c r="J33" s="97"/>
-    </row>
-    <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="284" t="s">
+      <c r="B37" s="207"/>
+      <c r="C37" s="207"/>
+      <c r="D37" s="207"/>
+      <c r="E37" s="207"/>
+      <c r="F37" s="290"/>
+      <c r="G37" s="291" t="s">
         <v>82</v>
       </c>
-      <c r="B34" s="151"/>
-      <c r="C34" s="151"/>
-      <c r="D34" s="151"/>
-      <c r="E34" s="151"/>
-      <c r="F34" s="152"/>
-      <c r="G34" s="285" t="s">
-        <v>106</v>
-      </c>
-      <c r="H34" s="151"/>
-      <c r="I34" s="151"/>
-      <c r="J34" s="178"/>
-    </row>
-    <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="165" t="s">
-        <v>155</v>
-      </c>
-      <c r="B35" s="166"/>
-      <c r="C35" s="166"/>
-      <c r="D35" s="166"/>
-      <c r="E35" s="166"/>
-      <c r="F35" s="167"/>
-      <c r="G35" s="55"/>
-      <c r="H35" s="45"/>
-      <c r="I35" s="45"/>
-      <c r="J35" s="56"/>
-    </row>
-    <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="165"/>
-      <c r="B36" s="166"/>
-      <c r="C36" s="166"/>
-      <c r="D36" s="166"/>
-      <c r="E36" s="166"/>
-      <c r="F36" s="167"/>
-      <c r="G36" s="55"/>
-      <c r="H36" s="45"/>
-      <c r="I36" s="45"/>
-      <c r="J36" s="56"/>
-    </row>
-    <row r="37" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="280" t="s">
-        <v>83</v>
-      </c>
-      <c r="B37" s="202"/>
-      <c r="C37" s="202"/>
-      <c r="D37" s="202"/>
-      <c r="E37" s="202"/>
-      <c r="F37" s="281"/>
-      <c r="G37" s="282" t="s">
-        <v>84</v>
-      </c>
-      <c r="H37" s="202"/>
-      <c r="I37" s="202"/>
-      <c r="J37" s="203"/>
+      <c r="H37" s="207"/>
+      <c r="I37" s="207"/>
+      <c r="J37" s="208"/>
     </row>
     <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -35506,7 +35497,7 @@
     <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="55">
+  <mergeCells count="51">
     <mergeCell ref="A37:F37"/>
     <mergeCell ref="G37:J37"/>
     <mergeCell ref="A28:B28"/>
@@ -35525,8 +35516,6 @@
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="A4:F10"/>
     <mergeCell ref="G4:J4"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
     <mergeCell ref="I22:J22"/>
     <mergeCell ref="G5:J5"/>
     <mergeCell ref="A11:E11"/>
@@ -35539,6 +35528,7 @@
     <mergeCell ref="A19:C20"/>
     <mergeCell ref="D19:F20"/>
     <mergeCell ref="G19:J20"/>
+    <mergeCell ref="B22:H22"/>
     <mergeCell ref="G12:J13"/>
     <mergeCell ref="A12:F13"/>
     <mergeCell ref="A14:C14"/>
@@ -35547,20 +35537,17 @@
     <mergeCell ref="D14:F14"/>
     <mergeCell ref="D15:F15"/>
     <mergeCell ref="D16:F16"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I26:J26"/>
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="I14:J14"/>
     <mergeCell ref="G15:H15"/>
     <mergeCell ref="I15:J15"/>
     <mergeCell ref="G16:J16"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:H24"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I26:J26"/>
     <mergeCell ref="I24:J24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:H25"/>
     <mergeCell ref="I25:J25"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -35587,89 +35574,89 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="32"/>
-      <c r="B1" s="300" t="s">
-        <v>105</v>
+      <c r="A1" s="31"/>
+      <c r="B1" s="307" t="s">
+        <v>103</v>
       </c>
-      <c r="C1" s="301"/>
-      <c r="D1" s="301"/>
-      <c r="E1" s="301"/>
-      <c r="F1" s="301"/>
-      <c r="G1" s="301"/>
-      <c r="H1" s="301"/>
-      <c r="I1" s="301"/>
-      <c r="J1" s="301"/>
-      <c r="K1" s="302"/>
-      <c r="R1" s="306"/>
-      <c r="S1" s="116"/>
-      <c r="T1" s="116"/>
-      <c r="U1" s="116"/>
-      <c r="V1" s="116"/>
-      <c r="W1" s="292"/>
-      <c r="X1" s="116"/>
-      <c r="Y1" s="116"/>
+      <c r="C1" s="308"/>
+      <c r="D1" s="308"/>
+      <c r="E1" s="308"/>
+      <c r="F1" s="308"/>
+      <c r="G1" s="308"/>
+      <c r="H1" s="308"/>
+      <c r="I1" s="308"/>
+      <c r="J1" s="308"/>
+      <c r="K1" s="309"/>
+      <c r="R1" s="313"/>
+      <c r="S1" s="113"/>
+      <c r="T1" s="113"/>
+      <c r="U1" s="113"/>
+      <c r="V1" s="113"/>
+      <c r="W1" s="299"/>
+      <c r="X1" s="113"/>
+      <c r="Y1" s="113"/>
     </row>
     <row r="2" spans="1:25" ht="36.75" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="32"/>
-      <c r="B2" s="303"/>
-      <c r="C2" s="304"/>
-      <c r="D2" s="304"/>
-      <c r="E2" s="304"/>
-      <c r="F2" s="304"/>
-      <c r="G2" s="304"/>
-      <c r="H2" s="304"/>
-      <c r="I2" s="304"/>
-      <c r="J2" s="304"/>
-      <c r="K2" s="305"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="310"/>
+      <c r="C2" s="311"/>
+      <c r="D2" s="311"/>
+      <c r="E2" s="311"/>
+      <c r="F2" s="311"/>
+      <c r="G2" s="311"/>
+      <c r="H2" s="311"/>
+      <c r="I2" s="311"/>
+      <c r="J2" s="311"/>
+      <c r="K2" s="312"/>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3" s="33"/>
-      <c r="B3" s="293" t="s">
+      <c r="A3" s="32"/>
+      <c r="B3" s="300" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" s="197"/>
+      <c r="D3" s="197"/>
+      <c r="E3" s="197"/>
+      <c r="F3" s="197"/>
+      <c r="G3" s="197"/>
+      <c r="H3" s="197"/>
+      <c r="I3" s="197"/>
+      <c r="J3" s="197"/>
+      <c r="K3" s="154"/>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4" s="32"/>
+      <c r="B4" s="301" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" s="113"/>
+      <c r="D4" s="113"/>
+      <c r="E4" s="113"/>
+      <c r="F4" s="113"/>
+      <c r="G4" s="113"/>
+      <c r="H4" s="113"/>
+      <c r="I4" s="113"/>
+      <c r="J4" s="113"/>
+      <c r="K4" s="302"/>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5" s="29"/>
+      <c r="B5" s="303" t="s">
         <v>123</v>
       </c>
-      <c r="C3" s="151"/>
-      <c r="D3" s="151"/>
-      <c r="E3" s="151"/>
-      <c r="F3" s="151"/>
-      <c r="G3" s="151"/>
-      <c r="H3" s="151"/>
-      <c r="I3" s="151"/>
-      <c r="J3" s="151"/>
-      <c r="K3" s="152"/>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4" s="33"/>
-      <c r="B4" s="294" t="s">
-        <v>124</v>
-      </c>
-      <c r="C4" s="116"/>
-      <c r="D4" s="116"/>
-      <c r="E4" s="116"/>
-      <c r="F4" s="116"/>
-      <c r="G4" s="116"/>
-      <c r="H4" s="116"/>
-      <c r="I4" s="116"/>
-      <c r="J4" s="116"/>
-      <c r="K4" s="295"/>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5" s="30"/>
-      <c r="B5" s="296" t="s">
-        <v>125</v>
-      </c>
-      <c r="C5" s="297"/>
-      <c r="D5" s="297"/>
-      <c r="E5" s="297"/>
-      <c r="F5" s="297"/>
-      <c r="G5" s="297"/>
-      <c r="H5" s="297"/>
-      <c r="I5" s="297"/>
-      <c r="J5" s="297"/>
-      <c r="K5" s="298"/>
+      <c r="C5" s="304"/>
+      <c r="D5" s="304"/>
+      <c r="E5" s="304"/>
+      <c r="F5" s="304"/>
+      <c r="G5" s="304"/>
+      <c r="H5" s="304"/>
+      <c r="I5" s="304"/>
+      <c r="J5" s="304"/>
+      <c r="K5" s="305"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
-      <c r="B6" s="25"/>
+      <c r="B6" s="24"/>
       <c r="C6" s="15"/>
       <c r="D6" s="15"/>
       <c r="E6" s="15"/>
@@ -35681,19 +35668,19 @@
       <c r="K6" s="16"/>
     </row>
     <row r="7" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="34"/>
-      <c r="B7" s="299" t="s">
-        <v>132</v>
+      <c r="A7" s="33"/>
+      <c r="B7" s="306" t="s">
+        <v>130</v>
       </c>
-      <c r="C7" s="116"/>
-      <c r="D7" s="116"/>
-      <c r="E7" s="116"/>
-      <c r="F7" s="116"/>
-      <c r="G7" s="116"/>
-      <c r="H7" s="116"/>
-      <c r="I7" s="116"/>
-      <c r="J7" s="116"/>
-      <c r="K7" s="295"/>
+      <c r="C7" s="113"/>
+      <c r="D7" s="113"/>
+      <c r="E7" s="113"/>
+      <c r="F7" s="113"/>
+      <c r="G7" s="113"/>
+      <c r="H7" s="113"/>
+      <c r="I7" s="113"/>
+      <c r="J7" s="113"/>
+      <c r="K7" s="302"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
@@ -35711,9 +35698,9 @@
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
-      <c r="C9" s="43">
+      <c r="C9" s="42">
         <v>45944</v>
       </c>
       <c r="D9" s="4"/>
@@ -35728,10 +35715,10 @@
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="17" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
-      <c r="C10" s="35" t="s">
-        <v>161</v>
+      <c r="C10" s="34" t="s">
+        <v>159</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -35758,7 +35745,7 @@
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="17" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -35772,42 +35759,42 @@
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
-      <c r="B13" s="286" t="s">
-        <v>162</v>
+      <c r="B13" s="295" t="s">
+        <v>160</v>
       </c>
-      <c r="C13" s="116"/>
-      <c r="D13" s="116"/>
-      <c r="E13" s="116"/>
-      <c r="F13" s="116"/>
-      <c r="G13" s="116"/>
+      <c r="C13" s="113"/>
+      <c r="D13" s="113"/>
+      <c r="E13" s="113"/>
+      <c r="F13" s="113"/>
+      <c r="G13" s="113"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="18"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A14" s="36"/>
-      <c r="B14" s="287" t="s">
-        <v>163</v>
+      <c r="A14" s="35"/>
+      <c r="B14" s="296" t="s">
+        <v>161</v>
       </c>
-      <c r="C14" s="116"/>
-      <c r="D14" s="116"/>
-      <c r="E14" s="116"/>
-      <c r="F14" s="116"/>
-      <c r="G14" s="116"/>
+      <c r="C14" s="113"/>
+      <c r="D14" s="113"/>
+      <c r="E14" s="113"/>
+      <c r="F14" s="113"/>
+      <c r="G14" s="113"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="18"/>
     </row>
     <row r="15" spans="1:25" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="36"/>
-      <c r="B15" s="288"/>
-      <c r="C15" s="116"/>
-      <c r="D15" s="116"/>
-      <c r="E15" s="116"/>
-      <c r="F15" s="116"/>
-      <c r="G15" s="116"/>
+      <c r="A15" s="35"/>
+      <c r="B15" s="297"/>
+      <c r="C15" s="113"/>
+      <c r="D15" s="113"/>
+      <c r="E15" s="113"/>
+      <c r="F15" s="113"/>
+      <c r="G15" s="113"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
@@ -35816,7 +35803,7 @@
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -35830,150 +35817,150 @@
     </row>
     <row r="17" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="22"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="21"/>
     </row>
     <row r="18" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="31"/>
-      <c r="B18" s="289" t="s">
+      <c r="A18" s="30"/>
+      <c r="B18" s="242" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" s="243"/>
+      <c r="D18" s="243"/>
+      <c r="E18" s="244"/>
+      <c r="F18" s="242" t="s">
+        <v>88</v>
+      </c>
+      <c r="G18" s="298"/>
+      <c r="H18" s="242" t="s">
+        <v>128</v>
+      </c>
+      <c r="I18" s="298"/>
+      <c r="J18" s="242" t="s">
         <v>89</v>
       </c>
-      <c r="C18" s="290"/>
-      <c r="D18" s="290"/>
-      <c r="E18" s="291"/>
-      <c r="F18" s="289" t="s">
-        <v>90</v>
+      <c r="K18" s="298"/>
+    </row>
+    <row r="19" spans="1:14" s="60" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="59"/>
+      <c r="B19" s="226" t="s">
+        <v>131</v>
       </c>
-      <c r="G18" s="222"/>
-      <c r="H18" s="289" t="s">
-        <v>130</v>
-      </c>
-      <c r="I18" s="222"/>
-      <c r="J18" s="289" t="s">
-        <v>91</v>
-      </c>
-      <c r="K18" s="222"/>
-    </row>
-    <row r="19" spans="1:14" s="65" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="64"/>
-      <c r="B19" s="307" t="s">
-        <v>133</v>
-      </c>
-      <c r="C19" s="308"/>
-      <c r="D19" s="308"/>
-      <c r="E19" s="309"/>
-      <c r="F19" s="320">
+      <c r="C19" s="314"/>
+      <c r="D19" s="314"/>
+      <c r="E19" s="315"/>
+      <c r="F19" s="327">
         <v>99.76</v>
       </c>
-      <c r="G19" s="321"/>
-      <c r="H19" s="322">
+      <c r="G19" s="328"/>
+      <c r="H19" s="329">
         <v>1808.35</v>
       </c>
-      <c r="I19" s="321"/>
-      <c r="J19" s="323">
+      <c r="I19" s="328"/>
+      <c r="J19" s="330">
         <f>F19*H19</f>
         <v>180400.99600000001</v>
       </c>
-      <c r="K19" s="321"/>
-      <c r="N19" s="112"/>
-    </row>
-    <row r="20" spans="1:14" s="111" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="64"/>
-      <c r="B20" s="307" t="s">
-        <v>133</v>
+      <c r="K19" s="328"/>
+      <c r="N19" s="105"/>
+    </row>
+    <row r="20" spans="1:14" s="104" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="59"/>
+      <c r="B20" s="226" t="s">
+        <v>131</v>
       </c>
-      <c r="C20" s="308"/>
-      <c r="D20" s="308"/>
-      <c r="E20" s="309"/>
-      <c r="F20" s="320">
+      <c r="C20" s="314"/>
+      <c r="D20" s="314"/>
+      <c r="E20" s="315"/>
+      <c r="F20" s="327">
         <v>99.99</v>
       </c>
-      <c r="G20" s="321"/>
-      <c r="H20" s="322">
+      <c r="G20" s="328"/>
+      <c r="H20" s="329">
         <v>1676.49</v>
       </c>
-      <c r="I20" s="321"/>
-      <c r="J20" s="323">
+      <c r="I20" s="328"/>
+      <c r="J20" s="330">
         <f>F20*H20</f>
         <v>167632.23509999999</v>
       </c>
-      <c r="K20" s="321"/>
-      <c r="N20" s="112"/>
+      <c r="K20" s="328"/>
+      <c r="N20" s="105"/>
     </row>
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="30"/>
-      <c r="B21" s="313"/>
-      <c r="C21" s="116"/>
-      <c r="D21" s="116"/>
-      <c r="E21" s="116"/>
-      <c r="F21" s="292"/>
-      <c r="G21" s="330"/>
-      <c r="H21" s="325" t="s">
-        <v>134</v>
+      <c r="A21" s="29"/>
+      <c r="B21" s="319"/>
+      <c r="C21" s="113"/>
+      <c r="D21" s="113"/>
+      <c r="E21" s="113"/>
+      <c r="F21" s="299"/>
+      <c r="G21" s="337"/>
+      <c r="H21" s="332" t="s">
+        <v>132</v>
       </c>
-      <c r="I21" s="326"/>
-      <c r="J21" s="310">
+      <c r="I21" s="333"/>
+      <c r="J21" s="316">
         <f>(J19+J20)*0.001</f>
         <v>348.03323109999997</v>
       </c>
-      <c r="K21" s="311"/>
+      <c r="K21" s="317"/>
     </row>
     <row r="22" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
-      <c r="B22" s="324"/>
-      <c r="C22" s="297"/>
-      <c r="D22" s="297"/>
-      <c r="E22" s="297"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="328" t="s">
-        <v>77</v>
+      <c r="B22" s="331"/>
+      <c r="C22" s="304"/>
+      <c r="D22" s="304"/>
+      <c r="E22" s="304"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="335" t="s">
+        <v>75</v>
       </c>
-      <c r="I22" s="329"/>
-      <c r="J22" s="318">
+      <c r="I22" s="336"/>
+      <c r="J22" s="325">
         <f>SUM(J19:K21)</f>
         <v>348381.26433109998</v>
       </c>
-      <c r="K22" s="319"/>
+      <c r="K22" s="326"/>
     </row>
     <row r="23" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="30"/>
-      <c r="B23" s="313"/>
-      <c r="C23" s="116"/>
-      <c r="D23" s="116"/>
-      <c r="E23" s="116"/>
+      <c r="A23" s="29"/>
+      <c r="B23" s="319"/>
+      <c r="C23" s="113"/>
+      <c r="D23" s="113"/>
+      <c r="E23" s="113"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
-      <c r="H23" s="314"/>
-      <c r="I23" s="116"/>
-      <c r="J23" s="292"/>
-      <c r="K23" s="295"/>
+      <c r="H23" s="320"/>
+      <c r="I23" s="113"/>
+      <c r="J23" s="299"/>
+      <c r="K23" s="302"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="31"/>
-      <c r="B24" s="315" t="s">
-        <v>92</v>
+      <c r="A24" s="30"/>
+      <c r="B24" s="321" t="s">
+        <v>90</v>
       </c>
-      <c r="C24" s="223"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="316">
+      <c r="C24" s="322"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="323">
         <f>J22</f>
         <v>348381.26433109998</v>
       </c>
-      <c r="K24" s="222"/>
+      <c r="K24" s="298"/>
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
@@ -35989,11 +35976,11 @@
       <c r="K25" s="18"/>
     </row>
     <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="38"/>
-      <c r="B26" s="327" t="s">
-        <v>93</v>
+      <c r="A26" s="37"/>
+      <c r="B26" s="334" t="s">
+        <v>91</v>
       </c>
-      <c r="C26" s="116"/>
+      <c r="C26" s="113"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
@@ -36006,11 +35993,11 @@
     <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="17" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -36023,12 +36010,12 @@
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="17" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C28" s="4"/>
-      <c r="D28" s="317"/>
-      <c r="E28" s="317"/>
-      <c r="F28" s="317"/>
+      <c r="D28" s="324"/>
+      <c r="E28" s="324"/>
+      <c r="F28" s="324"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
@@ -36038,7 +36025,7 @@
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="17" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -36053,11 +36040,11 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="17" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
@@ -36070,7 +36057,7 @@
     <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="17" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
@@ -36085,7 +36072,7 @@
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
@@ -36100,11 +36087,11 @@
     <row r="33" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="17" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
@@ -36119,7 +36106,7 @@
       <c r="B34" s="17"/>
       <c r="C34" s="4"/>
       <c r="D34" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
@@ -36134,7 +36121,7 @@
       <c r="B35" s="17"/>
       <c r="C35" s="4"/>
       <c r="D35" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="4"/>
@@ -36145,48 +36132,48 @@
       <c r="K35" s="18"/>
     </row>
     <row r="36" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="39"/>
-      <c r="B36" s="312" t="s">
-        <v>127</v>
+      <c r="A36" s="38"/>
+      <c r="B36" s="318" t="s">
+        <v>125</v>
       </c>
-      <c r="C36" s="116"/>
-      <c r="D36" s="116"/>
-      <c r="E36" s="116"/>
-      <c r="F36" s="116"/>
-      <c r="G36" s="116"/>
+      <c r="C36" s="113"/>
+      <c r="D36" s="113"/>
+      <c r="E36" s="113"/>
+      <c r="F36" s="113"/>
+      <c r="G36" s="113"/>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
       <c r="K36" s="18"/>
     </row>
     <row r="37" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="39"/>
-      <c r="B37" s="312" t="s">
-        <v>128</v>
+      <c r="A37" s="38"/>
+      <c r="B37" s="318" t="s">
+        <v>126</v>
       </c>
-      <c r="C37" s="116"/>
-      <c r="D37" s="116"/>
-      <c r="E37" s="116"/>
-      <c r="F37" s="116"/>
-      <c r="G37" s="116"/>
+      <c r="C37" s="113"/>
+      <c r="D37" s="113"/>
+      <c r="E37" s="113"/>
+      <c r="F37" s="113"/>
+      <c r="G37" s="113"/>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
       <c r="K37" s="18"/>
     </row>
     <row r="38" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="28"/>
-      <c r="B38" s="27" t="s">
-        <v>100</v>
+      <c r="A38" s="27"/>
+      <c r="B38" s="26" t="s">
+        <v>98</v>
       </c>
-      <c r="C38" s="40" t="str">
+      <c r="C38" s="39" t="str">
         <f>'input data'!B6</f>
         <v>AD240725023182F</v>
       </c>
-      <c r="D38" s="28"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="28"/>
-      <c r="G38" s="28"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
@@ -36194,8 +36181,8 @@
     </row>
     <row r="39" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
-      <c r="B39" s="26" t="s">
-        <v>106</v>
+      <c r="B39" s="25" t="s">
+        <v>104</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
@@ -36235,16 +36222,16 @@
     </row>
     <row r="42" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
-      <c r="B42" s="23"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="24"/>
-      <c r="H42" s="24"/>
-      <c r="I42" s="24"/>
-      <c r="J42" s="24"/>
-      <c r="K42" s="22"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="23"/>
+      <c r="I42" s="23"/>
+      <c r="J42" s="23"/>
+      <c r="K42" s="21"/>
     </row>
     <row r="43" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="44" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -37258,100 +37245,100 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="8.7109375" style="66" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" style="66" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="8.7109375" style="66" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" style="66" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="8.7109375" style="66" customWidth="1"/>
-    <col min="17" max="17" width="17.42578125" style="66" customWidth="1"/>
-    <col min="18" max="27" width="8.7109375" style="66" customWidth="1"/>
-    <col min="28" max="16384" width="14.42578125" style="66"/>
+    <col min="1" max="2" width="8.7109375" style="61" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="4" max="13" width="8.7109375" style="61" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="8.7109375" style="61" customWidth="1"/>
+    <col min="17" max="17" width="17.42578125" style="61" customWidth="1"/>
+    <col min="18" max="27" width="8.7109375" style="61" customWidth="1"/>
+    <col min="28" max="16384" width="14.42578125" style="61"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="32"/>
-      <c r="B1" s="300" t="s">
-        <v>105</v>
+      <c r="A1" s="31"/>
+      <c r="B1" s="307" t="s">
+        <v>103</v>
       </c>
-      <c r="C1" s="301"/>
-      <c r="D1" s="301"/>
-      <c r="E1" s="301"/>
-      <c r="F1" s="301"/>
-      <c r="G1" s="301"/>
-      <c r="H1" s="301"/>
-      <c r="I1" s="301"/>
-      <c r="J1" s="301"/>
-      <c r="K1" s="302"/>
-      <c r="R1" s="306"/>
-      <c r="S1" s="116"/>
-      <c r="T1" s="116"/>
-      <c r="U1" s="116"/>
-      <c r="V1" s="116"/>
-      <c r="W1" s="292"/>
-      <c r="X1" s="116"/>
-      <c r="Y1" s="116"/>
+      <c r="C1" s="308"/>
+      <c r="D1" s="308"/>
+      <c r="E1" s="308"/>
+      <c r="F1" s="308"/>
+      <c r="G1" s="308"/>
+      <c r="H1" s="308"/>
+      <c r="I1" s="308"/>
+      <c r="J1" s="308"/>
+      <c r="K1" s="309"/>
+      <c r="R1" s="313"/>
+      <c r="S1" s="113"/>
+      <c r="T1" s="113"/>
+      <c r="U1" s="113"/>
+      <c r="V1" s="113"/>
+      <c r="W1" s="299"/>
+      <c r="X1" s="113"/>
+      <c r="Y1" s="113"/>
     </row>
     <row r="2" spans="1:25" ht="36.75" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="32"/>
-      <c r="B2" s="303"/>
-      <c r="C2" s="304"/>
-      <c r="D2" s="304"/>
-      <c r="E2" s="304"/>
-      <c r="F2" s="304"/>
-      <c r="G2" s="304"/>
-      <c r="H2" s="304"/>
-      <c r="I2" s="304"/>
-      <c r="J2" s="304"/>
-      <c r="K2" s="305"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="310"/>
+      <c r="C2" s="311"/>
+      <c r="D2" s="311"/>
+      <c r="E2" s="311"/>
+      <c r="F2" s="311"/>
+      <c r="G2" s="311"/>
+      <c r="H2" s="311"/>
+      <c r="I2" s="311"/>
+      <c r="J2" s="311"/>
+      <c r="K2" s="312"/>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3" s="33"/>
-      <c r="B3" s="293" t="s">
+      <c r="A3" s="32"/>
+      <c r="B3" s="300" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" s="197"/>
+      <c r="D3" s="197"/>
+      <c r="E3" s="197"/>
+      <c r="F3" s="197"/>
+      <c r="G3" s="197"/>
+      <c r="H3" s="197"/>
+      <c r="I3" s="197"/>
+      <c r="J3" s="197"/>
+      <c r="K3" s="154"/>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4" s="32"/>
+      <c r="B4" s="301" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" s="113"/>
+      <c r="D4" s="113"/>
+      <c r="E4" s="113"/>
+      <c r="F4" s="113"/>
+      <c r="G4" s="113"/>
+      <c r="H4" s="113"/>
+      <c r="I4" s="113"/>
+      <c r="J4" s="113"/>
+      <c r="K4" s="302"/>
+    </row>
+    <row r="5" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="63"/>
+      <c r="B5" s="303" t="s">
         <v>123</v>
       </c>
-      <c r="C3" s="151"/>
-      <c r="D3" s="151"/>
-      <c r="E3" s="151"/>
-      <c r="F3" s="151"/>
-      <c r="G3" s="151"/>
-      <c r="H3" s="151"/>
-      <c r="I3" s="151"/>
-      <c r="J3" s="151"/>
-      <c r="K3" s="152"/>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4" s="33"/>
-      <c r="B4" s="294" t="s">
-        <v>124</v>
-      </c>
-      <c r="C4" s="116"/>
-      <c r="D4" s="116"/>
-      <c r="E4" s="116"/>
-      <c r="F4" s="116"/>
-      <c r="G4" s="116"/>
-      <c r="H4" s="116"/>
-      <c r="I4" s="116"/>
-      <c r="J4" s="116"/>
-      <c r="K4" s="295"/>
-    </row>
-    <row r="5" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="68"/>
-      <c r="B5" s="296" t="s">
-        <v>125</v>
-      </c>
-      <c r="C5" s="297"/>
-      <c r="D5" s="297"/>
-      <c r="E5" s="297"/>
-      <c r="F5" s="297"/>
-      <c r="G5" s="297"/>
-      <c r="H5" s="297"/>
-      <c r="I5" s="297"/>
-      <c r="J5" s="297"/>
-      <c r="K5" s="298"/>
+      <c r="C5" s="304"/>
+      <c r="D5" s="304"/>
+      <c r="E5" s="304"/>
+      <c r="F5" s="304"/>
+      <c r="G5" s="304"/>
+      <c r="H5" s="304"/>
+      <c r="I5" s="304"/>
+      <c r="J5" s="304"/>
+      <c r="K5" s="305"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
-      <c r="B6" s="25"/>
+      <c r="B6" s="24"/>
       <c r="C6" s="15"/>
       <c r="D6" s="15"/>
       <c r="E6" s="15"/>
@@ -37363,19 +37350,19 @@
       <c r="K6" s="16"/>
     </row>
     <row r="7" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="34"/>
-      <c r="B7" s="299" t="s">
-        <v>132</v>
+      <c r="A7" s="33"/>
+      <c r="B7" s="306" t="s">
+        <v>130</v>
       </c>
-      <c r="C7" s="116"/>
-      <c r="D7" s="116"/>
-      <c r="E7" s="116"/>
-      <c r="F7" s="116"/>
-      <c r="G7" s="116"/>
-      <c r="H7" s="116"/>
-      <c r="I7" s="116"/>
-      <c r="J7" s="116"/>
-      <c r="K7" s="295"/>
+      <c r="C7" s="113"/>
+      <c r="D7" s="113"/>
+      <c r="E7" s="113"/>
+      <c r="F7" s="113"/>
+      <c r="G7" s="113"/>
+      <c r="H7" s="113"/>
+      <c r="I7" s="113"/>
+      <c r="J7" s="113"/>
+      <c r="K7" s="302"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
@@ -37393,9 +37380,9 @@
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
-      <c r="C9" s="43">
+      <c r="C9" s="42">
         <v>45945</v>
       </c>
       <c r="D9" s="4"/>
@@ -37410,10 +37397,10 @@
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="17" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
-      <c r="C10" s="35" t="s">
-        <v>165</v>
+      <c r="C10" s="34" t="s">
+        <v>163</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -37440,7 +37427,7 @@
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="17" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -37454,42 +37441,42 @@
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
-      <c r="B13" s="286" t="s">
-        <v>167</v>
+      <c r="B13" s="295" t="s">
+        <v>165</v>
       </c>
-      <c r="C13" s="116"/>
-      <c r="D13" s="116"/>
-      <c r="E13" s="116"/>
-      <c r="F13" s="116"/>
-      <c r="G13" s="116"/>
+      <c r="C13" s="113"/>
+      <c r="D13" s="113"/>
+      <c r="E13" s="113"/>
+      <c r="F13" s="113"/>
+      <c r="G13" s="113"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="18"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A14" s="67"/>
-      <c r="B14" s="287" t="s">
-        <v>168</v>
+      <c r="A14" s="62"/>
+      <c r="B14" s="296" t="s">
+        <v>166</v>
       </c>
-      <c r="C14" s="116"/>
-      <c r="D14" s="116"/>
-      <c r="E14" s="116"/>
-      <c r="F14" s="116"/>
-      <c r="G14" s="116"/>
+      <c r="C14" s="113"/>
+      <c r="D14" s="113"/>
+      <c r="E14" s="113"/>
+      <c r="F14" s="113"/>
+      <c r="G14" s="113"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="18"/>
     </row>
     <row r="15" spans="1:25" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="67"/>
-      <c r="B15" s="288"/>
-      <c r="C15" s="116"/>
-      <c r="D15" s="116"/>
-      <c r="E15" s="116"/>
-      <c r="F15" s="116"/>
-      <c r="G15" s="116"/>
+      <c r="A15" s="62"/>
+      <c r="B15" s="297"/>
+      <c r="C15" s="113"/>
+      <c r="D15" s="113"/>
+      <c r="E15" s="113"/>
+      <c r="F15" s="113"/>
+      <c r="G15" s="113"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
@@ -37498,7 +37485,7 @@
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -37512,127 +37499,127 @@
     </row>
     <row r="17" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="22"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="21"/>
     </row>
     <row r="18" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="31"/>
-      <c r="B18" s="289" t="s">
+      <c r="A18" s="30"/>
+      <c r="B18" s="242" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" s="243"/>
+      <c r="D18" s="243"/>
+      <c r="E18" s="244"/>
+      <c r="F18" s="242" t="s">
+        <v>88</v>
+      </c>
+      <c r="G18" s="298"/>
+      <c r="H18" s="242" t="s">
+        <v>128</v>
+      </c>
+      <c r="I18" s="298"/>
+      <c r="J18" s="242" t="s">
         <v>89</v>
       </c>
-      <c r="C18" s="290"/>
-      <c r="D18" s="290"/>
-      <c r="E18" s="291"/>
-      <c r="F18" s="289" t="s">
-        <v>90</v>
+      <c r="K18" s="298"/>
+    </row>
+    <row r="19" spans="1:14" s="60" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="59"/>
+      <c r="B19" s="226" t="s">
+        <v>135</v>
       </c>
-      <c r="G18" s="222"/>
-      <c r="H18" s="289" t="s">
-        <v>130</v>
-      </c>
-      <c r="I18" s="222"/>
-      <c r="J18" s="289" t="s">
-        <v>91</v>
-      </c>
-      <c r="K18" s="222"/>
-    </row>
-    <row r="19" spans="1:14" s="65" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="64"/>
-      <c r="B19" s="307" t="s">
-        <v>137</v>
-      </c>
-      <c r="C19" s="308"/>
-      <c r="D19" s="308"/>
-      <c r="E19" s="309"/>
-      <c r="F19" s="320">
+      <c r="C19" s="314"/>
+      <c r="D19" s="314"/>
+      <c r="E19" s="315"/>
+      <c r="F19" s="327">
         <v>153</v>
       </c>
-      <c r="G19" s="321"/>
-      <c r="H19" s="322">
+      <c r="G19" s="328"/>
+      <c r="H19" s="329">
         <v>1714.17</v>
       </c>
-      <c r="I19" s="321"/>
-      <c r="J19" s="323">
+      <c r="I19" s="328"/>
+      <c r="J19" s="330">
         <f>F19*H19</f>
         <v>262268.01</v>
       </c>
-      <c r="K19" s="321"/>
-      <c r="N19" s="72"/>
+      <c r="K19" s="328"/>
+      <c r="N19" s="67"/>
     </row>
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="68"/>
-      <c r="B20" s="313"/>
-      <c r="C20" s="116"/>
-      <c r="D20" s="116"/>
-      <c r="E20" s="116"/>
-      <c r="F20" s="292"/>
-      <c r="G20" s="330"/>
-      <c r="H20" s="325" t="s">
-        <v>166</v>
+      <c r="A20" s="63"/>
+      <c r="B20" s="319"/>
+      <c r="C20" s="113"/>
+      <c r="D20" s="113"/>
+      <c r="E20" s="113"/>
+      <c r="F20" s="299"/>
+      <c r="G20" s="337"/>
+      <c r="H20" s="332" t="s">
+        <v>164</v>
       </c>
-      <c r="I20" s="326"/>
-      <c r="J20" s="310">
+      <c r="I20" s="333"/>
+      <c r="J20" s="316">
         <f>(J19)*0.18</f>
         <v>47208.241800000003</v>
       </c>
-      <c r="K20" s="311"/>
+      <c r="K20" s="317"/>
     </row>
     <row r="21" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14"/>
-      <c r="B21" s="324"/>
-      <c r="C21" s="297"/>
-      <c r="D21" s="297"/>
-      <c r="E21" s="297"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="328" t="s">
-        <v>77</v>
+      <c r="B21" s="331"/>
+      <c r="C21" s="304"/>
+      <c r="D21" s="304"/>
+      <c r="E21" s="304"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="335" t="s">
+        <v>75</v>
       </c>
-      <c r="I21" s="329"/>
-      <c r="J21" s="318">
+      <c r="I21" s="336"/>
+      <c r="J21" s="325">
         <f>SUM(J19:K20)</f>
         <v>309476.25180000003</v>
       </c>
-      <c r="K21" s="319"/>
+      <c r="K21" s="326"/>
     </row>
     <row r="22" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="68"/>
-      <c r="B22" s="313"/>
-      <c r="C22" s="116"/>
-      <c r="D22" s="116"/>
-      <c r="E22" s="116"/>
+      <c r="A22" s="63"/>
+      <c r="B22" s="319"/>
+      <c r="C22" s="113"/>
+      <c r="D22" s="113"/>
+      <c r="E22" s="113"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
-      <c r="H22" s="314"/>
-      <c r="I22" s="116"/>
-      <c r="J22" s="292"/>
-      <c r="K22" s="295"/>
+      <c r="H22" s="320"/>
+      <c r="I22" s="113"/>
+      <c r="J22" s="299"/>
+      <c r="K22" s="302"/>
     </row>
     <row r="23" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="31"/>
-      <c r="B23" s="315" t="s">
-        <v>92</v>
+      <c r="A23" s="30"/>
+      <c r="B23" s="321" t="s">
+        <v>90</v>
       </c>
-      <c r="C23" s="223"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="316">
+      <c r="C23" s="322"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="323">
         <f>J21</f>
         <v>309476.25180000003</v>
       </c>
-      <c r="K23" s="222"/>
+      <c r="K23" s="298"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
@@ -37648,11 +37635,11 @@
       <c r="K24" s="18"/>
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="38"/>
-      <c r="B25" s="327" t="s">
-        <v>93</v>
+      <c r="A25" s="37"/>
+      <c r="B25" s="334" t="s">
+        <v>91</v>
       </c>
-      <c r="C25" s="116"/>
+      <c r="C25" s="113"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
@@ -37665,11 +37652,11 @@
     <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="17" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -37682,12 +37669,12 @@
     <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="17" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C27" s="4"/>
-      <c r="D27" s="317"/>
-      <c r="E27" s="317"/>
-      <c r="F27" s="317"/>
+      <c r="D27" s="324"/>
+      <c r="E27" s="324"/>
+      <c r="F27" s="324"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
@@ -37697,7 +37684,7 @@
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="17" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -37712,11 +37699,11 @@
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="17" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
@@ -37729,7 +37716,7 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="17" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -37744,7 +37731,7 @@
     <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
@@ -37759,11 +37746,11 @@
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="17" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
@@ -37778,7 +37765,7 @@
       <c r="B33" s="17"/>
       <c r="C33" s="4"/>
       <c r="D33" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
@@ -37793,7 +37780,7 @@
       <c r="B34" s="17"/>
       <c r="C34" s="4"/>
       <c r="D34" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="4"/>
@@ -37804,48 +37791,48 @@
       <c r="K34" s="18"/>
     </row>
     <row r="35" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="39"/>
-      <c r="B35" s="312" t="s">
-        <v>127</v>
+      <c r="A35" s="38"/>
+      <c r="B35" s="318" t="s">
+        <v>125</v>
       </c>
-      <c r="C35" s="116"/>
-      <c r="D35" s="116"/>
-      <c r="E35" s="116"/>
-      <c r="F35" s="116"/>
-      <c r="G35" s="116"/>
+      <c r="C35" s="113"/>
+      <c r="D35" s="113"/>
+      <c r="E35" s="113"/>
+      <c r="F35" s="113"/>
+      <c r="G35" s="113"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
       <c r="K35" s="18"/>
     </row>
     <row r="36" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="39"/>
-      <c r="B36" s="312" t="s">
-        <v>128</v>
+      <c r="A36" s="38"/>
+      <c r="B36" s="318" t="s">
+        <v>126</v>
       </c>
-      <c r="C36" s="116"/>
-      <c r="D36" s="116"/>
-      <c r="E36" s="116"/>
-      <c r="F36" s="116"/>
-      <c r="G36" s="116"/>
+      <c r="C36" s="113"/>
+      <c r="D36" s="113"/>
+      <c r="E36" s="113"/>
+      <c r="F36" s="113"/>
+      <c r="G36" s="113"/>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
       <c r="K36" s="18"/>
     </row>
     <row r="37" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="28"/>
-      <c r="B37" s="27" t="s">
-        <v>100</v>
+      <c r="A37" s="27"/>
+      <c r="B37" s="26" t="s">
+        <v>98</v>
       </c>
-      <c r="C37" s="40" t="str">
+      <c r="C37" s="39" t="str">
         <f>'input data'!B6</f>
         <v>AD240725023182F</v>
       </c>
-      <c r="D37" s="28"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="28"/>
-      <c r="G37" s="28"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
@@ -37853,8 +37840,8 @@
     </row>
     <row r="38" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
-      <c r="B38" s="26" t="s">
-        <v>106</v>
+      <c r="B38" s="25" t="s">
+        <v>104</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
@@ -37894,16 +37881,16 @@
     </row>
     <row r="41" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4"/>
-      <c r="B41" s="23"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="24"/>
-      <c r="G41" s="24"/>
-      <c r="H41" s="24"/>
-      <c r="I41" s="24"/>
-      <c r="J41" s="24"/>
-      <c r="K41" s="22"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="23"/>
+      <c r="I41" s="23"/>
+      <c r="J41" s="23"/>
+      <c r="K41" s="21"/>
     </row>
     <row r="42" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="43" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -38916,100 +38903,100 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="8.7109375" style="69" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" style="69" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="8.7109375" style="69" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" style="69" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="8.7109375" style="69" customWidth="1"/>
-    <col min="17" max="17" width="17.42578125" style="69" customWidth="1"/>
-    <col min="18" max="27" width="8.7109375" style="69" customWidth="1"/>
-    <col min="28" max="16384" width="14.42578125" style="69"/>
+    <col min="1" max="2" width="8.7109375" style="64" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" style="64" bestFit="1" customWidth="1"/>
+    <col min="4" max="13" width="8.7109375" style="64" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" style="64" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="8.7109375" style="64" customWidth="1"/>
+    <col min="17" max="17" width="17.42578125" style="64" customWidth="1"/>
+    <col min="18" max="27" width="8.7109375" style="64" customWidth="1"/>
+    <col min="28" max="16384" width="14.42578125" style="64"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="32"/>
-      <c r="B1" s="300" t="s">
-        <v>105</v>
+      <c r="A1" s="31"/>
+      <c r="B1" s="307" t="s">
+        <v>103</v>
       </c>
-      <c r="C1" s="301"/>
-      <c r="D1" s="301"/>
-      <c r="E1" s="301"/>
-      <c r="F1" s="301"/>
-      <c r="G1" s="301"/>
-      <c r="H1" s="301"/>
-      <c r="I1" s="301"/>
-      <c r="J1" s="301"/>
-      <c r="K1" s="302"/>
-      <c r="R1" s="306"/>
-      <c r="S1" s="116"/>
-      <c r="T1" s="116"/>
-      <c r="U1" s="116"/>
-      <c r="V1" s="116"/>
-      <c r="W1" s="292"/>
-      <c r="X1" s="116"/>
-      <c r="Y1" s="116"/>
+      <c r="C1" s="308"/>
+      <c r="D1" s="308"/>
+      <c r="E1" s="308"/>
+      <c r="F1" s="308"/>
+      <c r="G1" s="308"/>
+      <c r="H1" s="308"/>
+      <c r="I1" s="308"/>
+      <c r="J1" s="308"/>
+      <c r="K1" s="309"/>
+      <c r="R1" s="313"/>
+      <c r="S1" s="113"/>
+      <c r="T1" s="113"/>
+      <c r="U1" s="113"/>
+      <c r="V1" s="113"/>
+      <c r="W1" s="299"/>
+      <c r="X1" s="113"/>
+      <c r="Y1" s="113"/>
     </row>
     <row r="2" spans="1:25" ht="36.75" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="32"/>
-      <c r="B2" s="303"/>
-      <c r="C2" s="304"/>
-      <c r="D2" s="304"/>
-      <c r="E2" s="304"/>
-      <c r="F2" s="304"/>
-      <c r="G2" s="304"/>
-      <c r="H2" s="304"/>
-      <c r="I2" s="304"/>
-      <c r="J2" s="304"/>
-      <c r="K2" s="305"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="310"/>
+      <c r="C2" s="311"/>
+      <c r="D2" s="311"/>
+      <c r="E2" s="311"/>
+      <c r="F2" s="311"/>
+      <c r="G2" s="311"/>
+      <c r="H2" s="311"/>
+      <c r="I2" s="311"/>
+      <c r="J2" s="311"/>
+      <c r="K2" s="312"/>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3" s="33"/>
-      <c r="B3" s="293" t="s">
+      <c r="A3" s="32"/>
+      <c r="B3" s="300" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" s="197"/>
+      <c r="D3" s="197"/>
+      <c r="E3" s="197"/>
+      <c r="F3" s="197"/>
+      <c r="G3" s="197"/>
+      <c r="H3" s="197"/>
+      <c r="I3" s="197"/>
+      <c r="J3" s="197"/>
+      <c r="K3" s="154"/>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4" s="32"/>
+      <c r="B4" s="301" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" s="113"/>
+      <c r="D4" s="113"/>
+      <c r="E4" s="113"/>
+      <c r="F4" s="113"/>
+      <c r="G4" s="113"/>
+      <c r="H4" s="113"/>
+      <c r="I4" s="113"/>
+      <c r="J4" s="113"/>
+      <c r="K4" s="302"/>
+    </row>
+    <row r="5" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="66"/>
+      <c r="B5" s="303" t="s">
         <v>123</v>
       </c>
-      <c r="C3" s="151"/>
-      <c r="D3" s="151"/>
-      <c r="E3" s="151"/>
-      <c r="F3" s="151"/>
-      <c r="G3" s="151"/>
-      <c r="H3" s="151"/>
-      <c r="I3" s="151"/>
-      <c r="J3" s="151"/>
-      <c r="K3" s="152"/>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4" s="33"/>
-      <c r="B4" s="294" t="s">
-        <v>124</v>
-      </c>
-      <c r="C4" s="116"/>
-      <c r="D4" s="116"/>
-      <c r="E4" s="116"/>
-      <c r="F4" s="116"/>
-      <c r="G4" s="116"/>
-      <c r="H4" s="116"/>
-      <c r="I4" s="116"/>
-      <c r="J4" s="116"/>
-      <c r="K4" s="295"/>
-    </row>
-    <row r="5" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="71"/>
-      <c r="B5" s="296" t="s">
-        <v>125</v>
-      </c>
-      <c r="C5" s="297"/>
-      <c r="D5" s="297"/>
-      <c r="E5" s="297"/>
-      <c r="F5" s="297"/>
-      <c r="G5" s="297"/>
-      <c r="H5" s="297"/>
-      <c r="I5" s="297"/>
-      <c r="J5" s="297"/>
-      <c r="K5" s="298"/>
+      <c r="C5" s="304"/>
+      <c r="D5" s="304"/>
+      <c r="E5" s="304"/>
+      <c r="F5" s="304"/>
+      <c r="G5" s="304"/>
+      <c r="H5" s="304"/>
+      <c r="I5" s="304"/>
+      <c r="J5" s="304"/>
+      <c r="K5" s="305"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
-      <c r="B6" s="25"/>
+      <c r="B6" s="24"/>
       <c r="C6" s="15"/>
       <c r="D6" s="15"/>
       <c r="E6" s="15"/>
@@ -39021,19 +39008,19 @@
       <c r="K6" s="16"/>
     </row>
     <row r="7" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="34"/>
-      <c r="B7" s="299" t="s">
-        <v>132</v>
+      <c r="A7" s="33"/>
+      <c r="B7" s="306" t="s">
+        <v>130</v>
       </c>
-      <c r="C7" s="116"/>
-      <c r="D7" s="116"/>
-      <c r="E7" s="116"/>
-      <c r="F7" s="116"/>
-      <c r="G7" s="116"/>
-      <c r="H7" s="116"/>
-      <c r="I7" s="116"/>
-      <c r="J7" s="116"/>
-      <c r="K7" s="295"/>
+      <c r="C7" s="113"/>
+      <c r="D7" s="113"/>
+      <c r="E7" s="113"/>
+      <c r="F7" s="113"/>
+      <c r="G7" s="113"/>
+      <c r="H7" s="113"/>
+      <c r="I7" s="113"/>
+      <c r="J7" s="113"/>
+      <c r="K7" s="302"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
@@ -39051,10 +39038,10 @@
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
-      <c r="C9" s="43" t="s">
-        <v>136</v>
+      <c r="C9" s="42" t="s">
+        <v>134</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -39068,10 +39055,10 @@
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="17" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
-      <c r="C10" s="35" t="s">
-        <v>138</v>
+      <c r="C10" s="34" t="s">
+        <v>136</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -39098,7 +39085,7 @@
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="17" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -39112,42 +39099,42 @@
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
-      <c r="B13" s="286" t="s">
-        <v>139</v>
+      <c r="B13" s="295" t="s">
+        <v>137</v>
       </c>
-      <c r="C13" s="116"/>
-      <c r="D13" s="116"/>
-      <c r="E13" s="116"/>
-      <c r="F13" s="116"/>
-      <c r="G13" s="116"/>
+      <c r="C13" s="113"/>
+      <c r="D13" s="113"/>
+      <c r="E13" s="113"/>
+      <c r="F13" s="113"/>
+      <c r="G13" s="113"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="18"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A14" s="70"/>
-      <c r="B14" s="287" t="s">
-        <v>140</v>
+      <c r="A14" s="65"/>
+      <c r="B14" s="296" t="s">
+        <v>138</v>
       </c>
-      <c r="C14" s="116"/>
-      <c r="D14" s="116"/>
-      <c r="E14" s="116"/>
-      <c r="F14" s="116"/>
-      <c r="G14" s="116"/>
+      <c r="C14" s="113"/>
+      <c r="D14" s="113"/>
+      <c r="E14" s="113"/>
+      <c r="F14" s="113"/>
+      <c r="G14" s="113"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="18"/>
     </row>
     <row r="15" spans="1:25" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="70"/>
-      <c r="B15" s="288"/>
-      <c r="C15" s="116"/>
-      <c r="D15" s="116"/>
-      <c r="E15" s="116"/>
-      <c r="F15" s="116"/>
-      <c r="G15" s="116"/>
+      <c r="A15" s="65"/>
+      <c r="B15" s="297"/>
+      <c r="C15" s="113"/>
+      <c r="D15" s="113"/>
+      <c r="E15" s="113"/>
+      <c r="F15" s="113"/>
+      <c r="G15" s="113"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
@@ -39156,7 +39143,7 @@
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -39170,127 +39157,127 @@
     </row>
     <row r="17" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="22"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="21"/>
     </row>
     <row r="18" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="31"/>
-      <c r="B18" s="289" t="s">
+      <c r="A18" s="30"/>
+      <c r="B18" s="242" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" s="243"/>
+      <c r="D18" s="243"/>
+      <c r="E18" s="244"/>
+      <c r="F18" s="242" t="s">
+        <v>88</v>
+      </c>
+      <c r="G18" s="298"/>
+      <c r="H18" s="242" t="s">
+        <v>128</v>
+      </c>
+      <c r="I18" s="298"/>
+      <c r="J18" s="242" t="s">
         <v>89</v>
       </c>
-      <c r="C18" s="290"/>
-      <c r="D18" s="290"/>
-      <c r="E18" s="291"/>
-      <c r="F18" s="289" t="s">
-        <v>90</v>
+      <c r="K18" s="298"/>
+    </row>
+    <row r="19" spans="1:14" s="60" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="59"/>
+      <c r="B19" s="226" t="s">
+        <v>135</v>
       </c>
-      <c r="G18" s="222"/>
-      <c r="H18" s="289" t="s">
-        <v>130</v>
-      </c>
-      <c r="I18" s="222"/>
-      <c r="J18" s="289" t="s">
-        <v>91</v>
-      </c>
-      <c r="K18" s="222"/>
-    </row>
-    <row r="19" spans="1:14" s="65" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="64"/>
-      <c r="B19" s="307" t="s">
-        <v>137</v>
-      </c>
-      <c r="C19" s="308"/>
-      <c r="D19" s="308"/>
-      <c r="E19" s="309"/>
-      <c r="F19" s="320">
+      <c r="C19" s="314"/>
+      <c r="D19" s="314"/>
+      <c r="E19" s="315"/>
+      <c r="F19" s="327">
         <v>157.12</v>
       </c>
-      <c r="G19" s="321"/>
-      <c r="H19" s="322">
+      <c r="G19" s="328"/>
+      <c r="H19" s="329">
         <v>1190.73</v>
       </c>
-      <c r="I19" s="321"/>
-      <c r="J19" s="323">
+      <c r="I19" s="328"/>
+      <c r="J19" s="330">
         <f>F19*H19</f>
         <v>187087.4976</v>
       </c>
-      <c r="K19" s="321"/>
-      <c r="N19" s="72"/>
+      <c r="K19" s="328"/>
+      <c r="N19" s="67"/>
     </row>
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="71"/>
-      <c r="B20" s="313"/>
-      <c r="C20" s="116"/>
-      <c r="D20" s="116"/>
-      <c r="E20" s="116"/>
-      <c r="F20" s="292"/>
-      <c r="G20" s="330"/>
-      <c r="H20" s="325" t="s">
-        <v>134</v>
+      <c r="A20" s="66"/>
+      <c r="B20" s="319"/>
+      <c r="C20" s="113"/>
+      <c r="D20" s="113"/>
+      <c r="E20" s="113"/>
+      <c r="F20" s="299"/>
+      <c r="G20" s="337"/>
+      <c r="H20" s="332" t="s">
+        <v>132</v>
       </c>
-      <c r="I20" s="326"/>
-      <c r="J20" s="310">
+      <c r="I20" s="333"/>
+      <c r="J20" s="316">
         <f>(J19)*0.001</f>
         <v>187.08749760000001</v>
       </c>
-      <c r="K20" s="311"/>
+      <c r="K20" s="317"/>
     </row>
     <row r="21" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14"/>
-      <c r="B21" s="324"/>
-      <c r="C21" s="297"/>
-      <c r="D21" s="297"/>
-      <c r="E21" s="297"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="328" t="s">
-        <v>77</v>
+      <c r="B21" s="331"/>
+      <c r="C21" s="304"/>
+      <c r="D21" s="304"/>
+      <c r="E21" s="304"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="335" t="s">
+        <v>75</v>
       </c>
-      <c r="I21" s="329"/>
-      <c r="J21" s="318">
+      <c r="I21" s="336"/>
+      <c r="J21" s="325">
         <f>SUM(J19:K20)</f>
         <v>187274.58509760001</v>
       </c>
-      <c r="K21" s="319"/>
+      <c r="K21" s="326"/>
     </row>
     <row r="22" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="71"/>
-      <c r="B22" s="313"/>
-      <c r="C22" s="116"/>
-      <c r="D22" s="116"/>
-      <c r="E22" s="116"/>
+      <c r="A22" s="66"/>
+      <c r="B22" s="319"/>
+      <c r="C22" s="113"/>
+      <c r="D22" s="113"/>
+      <c r="E22" s="113"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
-      <c r="H22" s="314"/>
-      <c r="I22" s="116"/>
-      <c r="J22" s="292"/>
-      <c r="K22" s="295"/>
+      <c r="H22" s="320"/>
+      <c r="I22" s="113"/>
+      <c r="J22" s="299"/>
+      <c r="K22" s="302"/>
     </row>
     <row r="23" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="31"/>
-      <c r="B23" s="315" t="s">
-        <v>92</v>
+      <c r="A23" s="30"/>
+      <c r="B23" s="321" t="s">
+        <v>90</v>
       </c>
-      <c r="C23" s="223"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="316">
+      <c r="C23" s="322"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="323">
         <f>J21</f>
         <v>187274.58509760001</v>
       </c>
-      <c r="K23" s="222"/>
+      <c r="K23" s="298"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
@@ -39306,11 +39293,11 @@
       <c r="K24" s="18"/>
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="38"/>
-      <c r="B25" s="327" t="s">
-        <v>93</v>
+      <c r="A25" s="37"/>
+      <c r="B25" s="334" t="s">
+        <v>91</v>
       </c>
-      <c r="C25" s="116"/>
+      <c r="C25" s="113"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
@@ -39323,11 +39310,11 @@
     <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="17" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -39340,12 +39327,12 @@
     <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="17" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C27" s="4"/>
-      <c r="D27" s="317"/>
-      <c r="E27" s="317"/>
-      <c r="F27" s="317"/>
+      <c r="D27" s="324"/>
+      <c r="E27" s="324"/>
+      <c r="F27" s="324"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
@@ -39355,7 +39342,7 @@
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="17" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -39370,11 +39357,11 @@
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="17" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
@@ -39387,7 +39374,7 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="17" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -39402,7 +39389,7 @@
     <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
@@ -39417,11 +39404,11 @@
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="17" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
@@ -39436,7 +39423,7 @@
       <c r="B33" s="17"/>
       <c r="C33" s="4"/>
       <c r="D33" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
@@ -39451,7 +39438,7 @@
       <c r="B34" s="17"/>
       <c r="C34" s="4"/>
       <c r="D34" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="4"/>
@@ -39462,48 +39449,48 @@
       <c r="K34" s="18"/>
     </row>
     <row r="35" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="39"/>
-      <c r="B35" s="312" t="s">
-        <v>127</v>
+      <c r="A35" s="38"/>
+      <c r="B35" s="318" t="s">
+        <v>125</v>
       </c>
-      <c r="C35" s="116"/>
-      <c r="D35" s="116"/>
-      <c r="E35" s="116"/>
-      <c r="F35" s="116"/>
-      <c r="G35" s="116"/>
+      <c r="C35" s="113"/>
+      <c r="D35" s="113"/>
+      <c r="E35" s="113"/>
+      <c r="F35" s="113"/>
+      <c r="G35" s="113"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
       <c r="K35" s="18"/>
     </row>
     <row r="36" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="39"/>
-      <c r="B36" s="312" t="s">
-        <v>128</v>
+      <c r="A36" s="38"/>
+      <c r="B36" s="318" t="s">
+        <v>126</v>
       </c>
-      <c r="C36" s="116"/>
-      <c r="D36" s="116"/>
-      <c r="E36" s="116"/>
-      <c r="F36" s="116"/>
-      <c r="G36" s="116"/>
+      <c r="C36" s="113"/>
+      <c r="D36" s="113"/>
+      <c r="E36" s="113"/>
+      <c r="F36" s="113"/>
+      <c r="G36" s="113"/>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
       <c r="K36" s="18"/>
     </row>
     <row r="37" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="28"/>
-      <c r="B37" s="27" t="s">
-        <v>100</v>
+      <c r="A37" s="27"/>
+      <c r="B37" s="26" t="s">
+        <v>98</v>
       </c>
-      <c r="C37" s="40" t="str">
+      <c r="C37" s="39" t="str">
         <f>'input data'!B6</f>
         <v>AD240725023182F</v>
       </c>
-      <c r="D37" s="28"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="28"/>
-      <c r="G37" s="28"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
@@ -39511,8 +39498,8 @@
     </row>
     <row r="38" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
-      <c r="B38" s="26" t="s">
-        <v>106</v>
+      <c r="B38" s="25" t="s">
+        <v>104</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
@@ -39552,16 +39539,16 @@
     </row>
     <row r="41" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4"/>
-      <c r="B41" s="23"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="24"/>
-      <c r="G41" s="24"/>
-      <c r="H41" s="24"/>
-      <c r="I41" s="24"/>
-      <c r="J41" s="24"/>
-      <c r="K41" s="22"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="23"/>
+      <c r="I41" s="23"/>
+      <c r="J41" s="23"/>
+      <c r="K41" s="21"/>
     </row>
     <row r="42" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="43" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
